--- a/backend/src/uploads/course_offerings.xlsx
+++ b/backend/src/uploads/course_offerings.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q90"/>
+  <dimension ref="A1:Q89"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -471,25 +471,25 @@
         <v>GEDANCE</v>
       </c>
       <c r="D3" t="str">
-        <v>Physical Fitness and WeLLness in Dance</v>
+        <v>Physical Fitness and Wellness in Dance</v>
       </c>
       <c r="E3" t="str">
         <v>X</v>
       </c>
       <c r="F3" t="str">
-        <v>X22</v>
+        <v>XE1</v>
       </c>
       <c r="G3" t="str">
         <v>TUMALE, MARIA CRISTINA</v>
       </c>
       <c r="H3" t="str">
-        <v>T</v>
+        <v>H</v>
       </c>
       <c r="I3" t="str">
-        <v>1530</v>
+        <v>730</v>
       </c>
       <c r="J3" t="str">
-        <v>1730</v>
+        <v>930</v>
       </c>
       <c r="K3" t="str">
         <v>LAG-COVCA</v>
@@ -509,22 +509,22 @@
         <v/>
       </c>
       <c r="C4" t="str">
-        <v>GEDANCE</v>
+        <v>GESPORT</v>
       </c>
       <c r="D4" t="str">
-        <v>Physical Fitness and Wellness in Dance</v>
+        <v>Physical Fitness and Wellness in Individual Sports</v>
       </c>
       <c r="E4" t="str">
         <v>X</v>
       </c>
       <c r="F4" t="str">
-        <v>XE1</v>
+        <v>XA1</v>
       </c>
       <c r="G4" t="str">
         <v>TUMALE, MARIA CRISTINA</v>
       </c>
       <c r="H4" t="str">
-        <v>H</v>
+        <v>W</v>
       </c>
       <c r="I4" t="str">
         <v>730</v>
@@ -550,31 +550,31 @@
         <v/>
       </c>
       <c r="C5" t="str">
-        <v>GEFTWEL</v>
+        <v>GESPORT</v>
       </c>
       <c r="D5" t="str">
-        <v>Physical Fitness and Wellness</v>
+        <v>Physical Fitness and Wellness in Individual/Dual Sports</v>
       </c>
       <c r="E5" t="str">
         <v>X</v>
       </c>
       <c r="F5" t="str">
-        <v>X22</v>
+        <v>XB1</v>
       </c>
       <c r="G5" t="str">
         <v>TUMALE, MARIA CRISTINA</v>
       </c>
       <c r="H5" t="str">
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="I5" t="str">
-        <v>1300</v>
+        <v>730</v>
       </c>
       <c r="J5" t="str">
-        <v>1500</v>
+        <v>930</v>
       </c>
       <c r="K5" t="str">
-        <v>SMG-BLCHL</v>
+        <v>LAG-COVCA</v>
       </c>
       <c r="P5">
         <v>40</v>
@@ -591,31 +591,31 @@
         <v/>
       </c>
       <c r="C6" t="str">
-        <v>GESPORT</v>
+        <v>GEFTWEL</v>
       </c>
       <c r="D6" t="str">
-        <v>Physical Fitness and Wellness in Individual Sports</v>
+        <v>Physical Fitness and Wellness</v>
       </c>
       <c r="E6" t="str">
         <v>X</v>
       </c>
       <c r="F6" t="str">
-        <v>XA1</v>
+        <v>X22</v>
       </c>
       <c r="G6" t="str">
         <v>TUMALE, MARIA CRISTINA</v>
       </c>
       <c r="H6" t="str">
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="I6" t="str">
-        <v>730</v>
+        <v>1300</v>
       </c>
       <c r="J6" t="str">
-        <v>930</v>
+        <v>1500</v>
       </c>
       <c r="K6" t="str">
-        <v>LAG-COVCA</v>
+        <v>SMG-BLCHL</v>
       </c>
       <c r="P6">
         <v>40</v>
@@ -632,10 +632,10 @@
         <v/>
       </c>
       <c r="C7" t="str">
-        <v>GESPORT</v>
+        <v>GETEAMS</v>
       </c>
       <c r="D7" t="str">
-        <v>Physical Fitness and Wellness in Individual Sports</v>
+        <v>Physical Fitness and Wellness inTeam Sports</v>
       </c>
       <c r="E7" t="str">
         <v>X</v>
@@ -644,16 +644,16 @@
         <v>X22</v>
       </c>
       <c r="G7" t="str">
-        <v>FABROA, KATE JOY</v>
+        <v>TUMALE, MARIA CRISTINA</v>
       </c>
       <c r="H7" t="str">
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="I7" t="str">
-        <v>1300</v>
+        <v>1230</v>
       </c>
       <c r="J7" t="str">
-        <v>1500</v>
+        <v>1430</v>
       </c>
       <c r="K7" t="str">
         <v>LAG-COVCA</v>
@@ -673,28 +673,28 @@
         <v/>
       </c>
       <c r="C8" t="str">
-        <v>GESPORT</v>
+        <v>GEDANCE</v>
       </c>
       <c r="D8" t="str">
-        <v>Physical Fitness and Wellness in Individual/Dual Sports</v>
+        <v>Physical Fitness and WeLLness in Dance</v>
       </c>
       <c r="E8" t="str">
         <v>X</v>
       </c>
       <c r="F8" t="str">
-        <v>XB1</v>
+        <v>X22</v>
       </c>
       <c r="G8" t="str">
         <v>TUMALE, MARIA CRISTINA</v>
       </c>
       <c r="H8" t="str">
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="I8" t="str">
-        <v>730</v>
+        <v>1530</v>
       </c>
       <c r="J8" t="str">
-        <v>930</v>
+        <v>1730</v>
       </c>
       <c r="K8" t="str">
         <v>LAG-COVCA</v>
@@ -723,13 +723,13 @@
         <v>X</v>
       </c>
       <c r="F9" t="str">
-        <v>XC1</v>
+        <v>X22</v>
       </c>
       <c r="G9" t="str">
-        <v>TUMALE, MARIA CRISTINA</v>
+        <v>FABROA, KATE JOY</v>
       </c>
       <c r="H9" t="str">
-        <v>H</v>
+        <v>T</v>
       </c>
       <c r="I9" t="str">
         <v>1300</v>
@@ -755,28 +755,28 @@
         <v/>
       </c>
       <c r="C10" t="str">
-        <v>GETEAMS</v>
+        <v>GESPORT</v>
       </c>
       <c r="D10" t="str">
-        <v>Physical Fitness and Wellness inTeam Sports</v>
+        <v>Physical Fitness and Wellness in Individual Sports</v>
       </c>
       <c r="E10" t="str">
         <v>X</v>
       </c>
       <c r="F10" t="str">
-        <v>X22</v>
+        <v>XC1</v>
       </c>
       <c r="G10" t="str">
         <v>TUMALE, MARIA CRISTINA</v>
       </c>
       <c r="H10" t="str">
-        <v>W</v>
+        <v>H</v>
       </c>
       <c r="I10" t="str">
-        <v>1230</v>
+        <v>1300</v>
       </c>
       <c r="J10" t="str">
-        <v>1430</v>
+        <v>1500</v>
       </c>
       <c r="K10" t="str">
         <v>LAG-COVCA</v>
@@ -811,43 +811,43 @@
         <v/>
       </c>
       <c r="C14" t="str">
-        <v>GEARTAP</v>
+        <v>GEETHIC</v>
       </c>
       <c r="D14" t="str">
-        <v>Art Appreciation</v>
+        <v>Ethics</v>
       </c>
       <c r="E14" t="str">
         <v>X</v>
       </c>
       <c r="F14" t="str">
-        <v>YA1</v>
+        <v>YL1</v>
       </c>
       <c r="G14" t="str">
-        <v>Liwanag, Leslie Anne</v>
+        <v>ESTEVES, MARTIN JOSEPH</v>
       </c>
       <c r="H14" t="str">
         <v>T</v>
       </c>
       <c r="I14" t="str">
-        <v>1100</v>
+        <v>1245</v>
       </c>
       <c r="J14" t="str">
-        <v>1230</v>
+        <v>1415</v>
       </c>
       <c r="K14" t="str">
-        <v>OL</v>
+        <v>MRW204</v>
       </c>
       <c r="L14" t="str">
         <v>F</v>
       </c>
       <c r="M14" t="str">
-        <v>1100</v>
+        <v>1245</v>
       </c>
       <c r="N14" t="str">
-        <v>1230</v>
+        <v>1415</v>
       </c>
       <c r="O14" t="str">
-        <v>MRW204</v>
+        <v>OL</v>
       </c>
       <c r="P14">
         <v>40</v>
@@ -861,43 +861,52 @@
         <v/>
       </c>
       <c r="B15" t="str">
-        <v/>
+        <v>BSCS-ST-122 (20)</v>
       </c>
       <c r="C15" t="str">
-        <v>GEARTAP</v>
+        <v>GEUSELF</v>
       </c>
       <c r="D15" t="str">
-        <v>Art Appreciation</v>
+        <v>Understanding the Self</v>
       </c>
       <c r="E15" t="str">
         <v>X</v>
       </c>
       <c r="F15" t="str">
-        <v>ZE1</v>
+        <v xml:space="preserve">ZE1 </v>
       </c>
       <c r="G15" t="str">
-        <v>Liwanag, Leslie Anne</v>
+        <v>JAYME, MARIA CARLA</v>
       </c>
       <c r="H15" t="str">
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="I15" t="str">
-        <v>915</v>
+        <v>1615</v>
       </c>
       <c r="J15" t="str">
-        <v>1045</v>
+        <v>1745</v>
       </c>
       <c r="K15" t="str">
         <v>OL</v>
       </c>
       <c r="L15" t="str">
-        <v>H</v>
+        <v>F</v>
       </c>
       <c r="M15" t="str">
-        <v>915</v>
+        <v>1615</v>
       </c>
       <c r="N15" t="str">
-        <v>1045</v>
+        <v>1745</v>
+      </c>
+      <c r="O15" t="str">
+        <v>MRE303</v>
+      </c>
+      <c r="P15">
+        <v>40</v>
+      </c>
+      <c r="Q15" t="str">
+        <v>HYBRID</v>
       </c>
     </row>
     <row r="16">
@@ -905,50 +914,47 @@
         <v/>
       </c>
       <c r="B16" t="str">
-        <v/>
+        <v>BSCS-ST-120 (2), BSCS-ST-122 (23)</v>
       </c>
       <c r="C16" t="str">
-        <v>GEETHIC</v>
+        <v>LCASEAN</v>
       </c>
       <c r="D16" t="str">
-        <v>Ethics</v>
+        <v>The Filipino and ASEAN</v>
       </c>
       <c r="E16" t="str">
         <v>X</v>
       </c>
       <c r="F16" t="str">
-        <v>YL1</v>
+        <v>Y22</v>
       </c>
       <c r="G16" t="str">
-        <v>ESTEVES, MARTIN JOSEPH</v>
+        <v>LORENZO, VICTORIO JOSEPH</v>
       </c>
       <c r="H16" t="str">
-        <v>T</v>
+        <v>M</v>
       </c>
       <c r="I16" t="str">
-        <v>1245</v>
+        <v>1615</v>
       </c>
       <c r="J16" t="str">
-        <v>1415</v>
+        <v>1745</v>
       </c>
       <c r="K16" t="str">
-        <v>MRW204</v>
+        <v>GT201</v>
       </c>
       <c r="L16" t="str">
-        <v>F</v>
+        <v>H</v>
       </c>
       <c r="M16" t="str">
-        <v>1245</v>
+        <v>1615</v>
       </c>
       <c r="N16" t="str">
-        <v>1415</v>
+        <v>1745</v>
       </c>
       <c r="O16" t="str">
         <v>OL</v>
       </c>
-      <c r="P16">
-        <v>40</v>
-      </c>
       <c r="Q16" t="str">
         <v>HYBRID</v>
       </c>
@@ -958,46 +964,46 @@
         <v/>
       </c>
       <c r="B17" t="str">
-        <v>BSIET-AD-123 (30)</v>
+        <v>BSIET-GD-120 (2)</v>
       </c>
       <c r="C17" t="str">
-        <v>GEFILI3</v>
+        <v>LCASEAN</v>
       </c>
       <c r="D17" t="str">
-        <v>Edukasyon at Pagpapahalagang Pangkultura</v>
+        <v>The Filipino and ASEAN</v>
       </c>
       <c r="E17" t="str">
         <v>X</v>
       </c>
       <c r="F17" t="str">
-        <v>YA1</v>
+        <v>ZC1</v>
       </c>
       <c r="G17" t="str">
-        <v>DONER, DONNES</v>
+        <v>LORENZO, VICTORIO JOSEPH</v>
       </c>
       <c r="H17" t="str">
-        <v>T</v>
+        <v>M</v>
       </c>
       <c r="I17" t="str">
-        <v>1100</v>
+        <v>915</v>
       </c>
       <c r="J17" t="str">
-        <v>1230</v>
+        <v>1045</v>
       </c>
       <c r="K17" t="str">
-        <v>MRE113</v>
+        <v>OL</v>
       </c>
       <c r="L17" t="str">
-        <v>F</v>
+        <v>H</v>
       </c>
       <c r="M17" t="str">
-        <v>1100</v>
+        <v>915</v>
       </c>
       <c r="N17" t="str">
-        <v>1230</v>
+        <v>1045</v>
       </c>
       <c r="O17" t="str">
-        <v>OL</v>
+        <v>GT207</v>
       </c>
       <c r="P17">
         <v>40</v>
@@ -1014,10 +1020,10 @@
         <v/>
       </c>
       <c r="C18" t="str">
-        <v>GELITPH (GELECAH)</v>
+        <v>LCASEAN</v>
       </c>
       <c r="D18" t="str">
-        <v>G.E. Arts and Humanities Elective</v>
+        <v>The Filipino and ASEAN</v>
       </c>
       <c r="E18" t="str">
         <v>X</v>
@@ -1026,28 +1032,28 @@
         <v>YA1</v>
       </c>
       <c r="G18" t="str">
-        <v>Liwanag, Leslie Anne</v>
+        <v>LORENZO, VICTORIO JOSEPH</v>
       </c>
       <c r="H18" t="str">
         <v>T</v>
       </c>
       <c r="I18" t="str">
-        <v>915</v>
+        <v>1430</v>
       </c>
       <c r="J18" t="str">
-        <v>1045</v>
+        <v>1600</v>
       </c>
       <c r="K18" t="str">
-        <v>MRE113</v>
+        <v>MRE201</v>
       </c>
       <c r="L18" t="str">
         <v>F</v>
       </c>
       <c r="M18" t="str">
-        <v>915</v>
+        <v>1430</v>
       </c>
       <c r="N18" t="str">
-        <v>1045</v>
+        <v>1600</v>
       </c>
       <c r="O18" t="str">
         <v>OL</v>
@@ -1064,13 +1070,13 @@
         <v/>
       </c>
       <c r="B19" t="str">
-        <v/>
+        <v>BSIET-AD-123 (30)</v>
       </c>
       <c r="C19" t="str">
-        <v>GEMATMW</v>
+        <v>LCFAITH</v>
       </c>
       <c r="D19" t="str">
-        <v>Mathematics in the Modern World</v>
+        <v>Faith Worth Living</v>
       </c>
       <c r="E19" t="str">
         <v>X</v>
@@ -1079,28 +1085,28 @@
         <v>YA1</v>
       </c>
       <c r="G19" t="str">
-        <v>CANTUBA, RAFAEL</v>
+        <v>CANETE, JONATHAN</v>
       </c>
       <c r="H19" t="str">
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="I19" t="str">
-        <v>1430</v>
+        <v>915</v>
       </c>
       <c r="J19" t="str">
-        <v>1600</v>
+        <v>1045</v>
       </c>
       <c r="K19" t="str">
-        <v>MRE201</v>
+        <v>MRW213</v>
       </c>
       <c r="L19" t="str">
-        <v>H</v>
+        <v>F</v>
       </c>
       <c r="M19" t="str">
-        <v>1430</v>
+        <v>915</v>
       </c>
       <c r="N19" t="str">
-        <v>1600</v>
+        <v>1045</v>
       </c>
       <c r="O19" t="str">
         <v>OL</v>
@@ -1117,52 +1123,40 @@
         <v/>
       </c>
       <c r="B20" t="str">
-        <v/>
+        <v>BSIET-GD-120 (2), BSCS-ST-122 (11)</v>
       </c>
       <c r="C20" t="str">
-        <v>GEPCOMM</v>
+        <v>LCLSONE</v>
       </c>
       <c r="D20" t="str">
-        <v>Purposive Communications (2A)</v>
+        <v>Lasallian Studies 1</v>
       </c>
       <c r="E20" t="str">
         <v>X</v>
       </c>
       <c r="F20" t="str">
-        <v>ZE1</v>
+        <v>ZE2</v>
       </c>
       <c r="G20" t="str">
-        <v>STERLING PLATA</v>
+        <v>UNAS, OSCAR</v>
       </c>
       <c r="H20" t="str">
-        <v>M</v>
+        <v>W</v>
       </c>
       <c r="I20" t="str">
-        <v>1430</v>
+        <v>730</v>
       </c>
       <c r="J20" t="str">
-        <v>1600</v>
+        <v>930</v>
       </c>
       <c r="K20" t="str">
-        <v>OL</v>
-      </c>
-      <c r="L20" t="str">
-        <v>H</v>
-      </c>
-      <c r="M20" t="str">
-        <v>1430</v>
-      </c>
-      <c r="N20" t="str">
-        <v>1600</v>
-      </c>
-      <c r="O20" t="str">
-        <v>MRW204</v>
+        <v>full online</v>
       </c>
       <c r="P20">
         <v>40</v>
       </c>
       <c r="Q20" t="str">
-        <v>HYBRID</v>
+        <v>FULLONLINE</v>
       </c>
     </row>
     <row r="21">
@@ -1170,13 +1164,13 @@
         <v/>
       </c>
       <c r="B21" t="str">
-        <v/>
+        <v>BSCS-ST-121 (5), BSIS-121 (10), BSIET-GD-123 (10), BSIET-AD-123 (30)</v>
       </c>
       <c r="C21" t="str">
-        <v>GERPHIS</v>
+        <v>GESTSOC</v>
       </c>
       <c r="D21" t="str">
-        <v>Readings in Philippine History</v>
+        <v>Science, Technology and the Society</v>
       </c>
       <c r="E21" t="str">
         <v>X</v>
@@ -1185,28 +1179,28 @@
         <v>YA1</v>
       </c>
       <c r="G21" t="str">
-        <v>DABUET, EASTER JOY</v>
+        <v>ERA, MARLON</v>
       </c>
       <c r="H21" t="str">
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="I21" t="str">
-        <v>1100</v>
+        <v>1245</v>
       </c>
       <c r="J21" t="str">
-        <v>1230</v>
+        <v>1415</v>
       </c>
       <c r="K21" t="str">
-        <v>MRE201</v>
+        <v>MRE113</v>
       </c>
       <c r="L21" t="str">
-        <v>H</v>
+        <v>F</v>
       </c>
       <c r="M21" t="str">
-        <v>1100</v>
+        <v>1245</v>
       </c>
       <c r="N21" t="str">
-        <v>1230</v>
+        <v>1415</v>
       </c>
       <c r="O21" t="str">
         <v>OL</v>
@@ -1223,43 +1217,43 @@
         <v/>
       </c>
       <c r="B22" t="str">
-        <v/>
+        <v>BSIET-AD-123 (30)</v>
       </c>
       <c r="C22" t="str">
-        <v>GERPHIS</v>
+        <v>GEFILI3</v>
       </c>
       <c r="D22" t="str">
-        <v>Mga Babasahin sa Kaysaysayan ng Pilipinas</v>
+        <v>Edukasyon at Pagpapahalagang Pangkultura</v>
       </c>
       <c r="E22" t="str">
         <v>X</v>
       </c>
       <c r="F22" t="str">
-        <v>Y22</v>
+        <v>YA1</v>
       </c>
       <c r="G22" t="str">
-        <v>DABUET, EASTER JOY</v>
+        <v>DONER, DONNES</v>
       </c>
       <c r="H22" t="str">
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="I22" t="str">
-        <v>1245</v>
+        <v>1100</v>
       </c>
       <c r="J22" t="str">
-        <v>1415</v>
+        <v>1230</v>
       </c>
       <c r="K22" t="str">
-        <v>GT208</v>
+        <v>MRE113</v>
       </c>
       <c r="L22" t="str">
-        <v>H</v>
+        <v>F</v>
       </c>
       <c r="M22" t="str">
-        <v>1245</v>
+        <v>1100</v>
       </c>
       <c r="N22" t="str">
-        <v>1415</v>
+        <v>1230</v>
       </c>
       <c r="O22" t="str">
         <v>OL</v>
@@ -1279,40 +1273,40 @@
         <v/>
       </c>
       <c r="C23" t="str">
-        <v>GEUSELF</v>
+        <v>GELITPH (GELECAH)</v>
       </c>
       <c r="D23" t="str">
-        <v>Understanding the Self</v>
+        <v>G.E. Arts and Humanities Elective</v>
       </c>
       <c r="E23" t="str">
         <v>X</v>
       </c>
       <c r="F23" t="str">
-        <v>YL1</v>
+        <v>YA1</v>
       </c>
       <c r="G23" t="str">
-        <v>JAYME, MARIA CARLA</v>
+        <v>Liwanag, Leslie Anne</v>
       </c>
       <c r="H23" t="str">
         <v>T</v>
       </c>
       <c r="I23" t="str">
-        <v>1245</v>
+        <v>915</v>
       </c>
       <c r="J23" t="str">
-        <v>1415</v>
+        <v>1045</v>
       </c>
       <c r="K23" t="str">
-        <v>MRE201</v>
+        <v>MRE113</v>
       </c>
       <c r="L23" t="str">
         <v>F</v>
       </c>
       <c r="M23" t="str">
-        <v>1245</v>
+        <v>915</v>
       </c>
       <c r="N23" t="str">
-        <v>1415</v>
+        <v>1045</v>
       </c>
       <c r="O23" t="str">
         <v>OL</v>
@@ -1329,46 +1323,46 @@
         <v/>
       </c>
       <c r="B24" t="str">
-        <v>BSCS-ST-122 (20)</v>
+        <v/>
       </c>
       <c r="C24" t="str">
-        <v>GEUSELF</v>
+        <v>GEMATMW</v>
       </c>
       <c r="D24" t="str">
-        <v>Understanding the Self</v>
+        <v>Mathematics in the Modern World</v>
       </c>
       <c r="E24" t="str">
         <v>X</v>
       </c>
       <c r="F24" t="str">
-        <v xml:space="preserve">ZE1 </v>
+        <v>YA1</v>
       </c>
       <c r="G24" t="str">
-        <v>JAYME, MARIA CARLA</v>
+        <v>CANTUBA, RAFAEL</v>
       </c>
       <c r="H24" t="str">
-        <v>T</v>
+        <v>M</v>
       </c>
       <c r="I24" t="str">
-        <v>1615</v>
+        <v>1430</v>
       </c>
       <c r="J24" t="str">
-        <v>1745</v>
+        <v>1600</v>
       </c>
       <c r="K24" t="str">
+        <v>MRE201</v>
+      </c>
+      <c r="L24" t="str">
+        <v>H</v>
+      </c>
+      <c r="M24" t="str">
+        <v>1430</v>
+      </c>
+      <c r="N24" t="str">
+        <v>1600</v>
+      </c>
+      <c r="O24" t="str">
         <v>OL</v>
-      </c>
-      <c r="L24" t="str">
-        <v>F</v>
-      </c>
-      <c r="M24" t="str">
-        <v>1615</v>
-      </c>
-      <c r="N24" t="str">
-        <v>1745</v>
-      </c>
-      <c r="O24" t="str">
-        <v>MRE303</v>
       </c>
       <c r="P24">
         <v>40</v>
@@ -1382,13 +1376,13 @@
         <v/>
       </c>
       <c r="B25" t="str">
-        <v>BSCS-ST-124 (20)</v>
+        <v/>
       </c>
       <c r="C25" t="str">
-        <v>GEWORLD</v>
+        <v>GERPHIS</v>
       </c>
       <c r="D25" t="str">
-        <v xml:space="preserve">The Contemporary World </v>
+        <v>Mga Babasahin sa Kaysaysayan ng Pilipinas</v>
       </c>
       <c r="E25" t="str">
         <v>X</v>
@@ -1397,28 +1391,28 @@
         <v>Y22</v>
       </c>
       <c r="G25" t="str">
-        <v>SANTOS, CONSUELO ANGELA L.</v>
+        <v>DABUET, EASTER JOY</v>
       </c>
       <c r="H25" t="str">
         <v>M</v>
       </c>
       <c r="I25" t="str">
-        <v>1430</v>
+        <v>1245</v>
       </c>
       <c r="J25" t="str">
-        <v>1600</v>
+        <v>1415</v>
       </c>
       <c r="K25" t="str">
-        <v>GT207</v>
+        <v>GT208</v>
       </c>
       <c r="L25" t="str">
         <v>H</v>
       </c>
       <c r="M25" t="str">
-        <v>1430</v>
+        <v>1245</v>
       </c>
       <c r="N25" t="str">
-        <v>1600</v>
+        <v>1415</v>
       </c>
       <c r="O25" t="str">
         <v>OL</v>
@@ -1438,43 +1432,43 @@
         <v/>
       </c>
       <c r="C26" t="str">
-        <v>GEWORLD</v>
+        <v>GEUSELF</v>
       </c>
       <c r="D26" t="str">
-        <v>Contemporary World</v>
+        <v>Understanding the Self</v>
       </c>
       <c r="E26" t="str">
         <v>X</v>
       </c>
       <c r="F26" t="str">
-        <v>ZC1</v>
+        <v>YL1</v>
       </c>
       <c r="G26" t="str">
-        <v>SANTOS, CONSUELO ANGELA L.</v>
+        <v>JAYME, MARIA CARLA</v>
       </c>
       <c r="H26" t="str">
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="I26" t="str">
-        <v>1100</v>
+        <v>1245</v>
       </c>
       <c r="J26" t="str">
-        <v>1230</v>
+        <v>1415</v>
       </c>
       <c r="K26" t="str">
+        <v>MRE201</v>
+      </c>
+      <c r="L26" t="str">
+        <v>F</v>
+      </c>
+      <c r="M26" t="str">
+        <v>1245</v>
+      </c>
+      <c r="N26" t="str">
+        <v>1415</v>
+      </c>
+      <c r="O26" t="str">
         <v>OL</v>
-      </c>
-      <c r="L26" t="str">
-        <v>H</v>
-      </c>
-      <c r="M26" t="str">
-        <v>1100</v>
-      </c>
-      <c r="N26" t="str">
-        <v>1230</v>
-      </c>
-      <c r="O26" t="str">
-        <v>GT206</v>
       </c>
       <c r="P26">
         <v>40</v>
@@ -1488,13 +1482,13 @@
         <v/>
       </c>
       <c r="B27" t="str">
-        <v>BSCS-ST-120 (2), BSCS-ST-122 (23)</v>
+        <v>BSCS-ST-124 (20)</v>
       </c>
       <c r="C27" t="str">
-        <v>LCASEAN</v>
+        <v>GEWORLD</v>
       </c>
       <c r="D27" t="str">
-        <v>The Filipino and ASEAN</v>
+        <v xml:space="preserve">The Contemporary World </v>
       </c>
       <c r="E27" t="str">
         <v>X</v>
@@ -1503,32 +1497,35 @@
         <v>Y22</v>
       </c>
       <c r="G27" t="str">
-        <v>LORENZO, VICTORIO JOSEPH</v>
+        <v>SANTOS, CONSUELO ANGELA L.</v>
       </c>
       <c r="H27" t="str">
         <v>M</v>
       </c>
       <c r="I27" t="str">
-        <v>1615</v>
+        <v>1430</v>
       </c>
       <c r="J27" t="str">
-        <v>1745</v>
+        <v>1600</v>
       </c>
       <c r="K27" t="str">
-        <v>GT201</v>
+        <v>GT207</v>
       </c>
       <c r="L27" t="str">
         <v>H</v>
       </c>
       <c r="M27" t="str">
-        <v>1615</v>
+        <v>1430</v>
       </c>
       <c r="N27" t="str">
-        <v>1745</v>
+        <v>1600</v>
       </c>
       <c r="O27" t="str">
         <v>OL</v>
       </c>
+      <c r="P27">
+        <v>40</v>
+      </c>
       <c r="Q27" t="str">
         <v>HYBRID</v>
       </c>
@@ -1541,49 +1538,46 @@
         <v/>
       </c>
       <c r="C28" t="str">
-        <v>LCASEAN</v>
+        <v>LCFILIA (GELECSP)</v>
       </c>
       <c r="D28" t="str">
-        <v>The Filipino and ASEAN</v>
+        <v>G.E. Social Science/Philosophy Elective</v>
       </c>
       <c r="E28" t="str">
         <v>X</v>
       </c>
       <c r="F28" t="str">
-        <v>ZC1</v>
+        <v>ZB1</v>
       </c>
       <c r="G28" t="str">
-        <v>LORENZO, VICTORIO JOSEPH</v>
+        <v>JUMAQUIO-ARDALES, ALONA</v>
       </c>
       <c r="H28" t="str">
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="I28" t="str">
-        <v>915</v>
+        <v>1245</v>
       </c>
       <c r="J28" t="str">
-        <v>1045</v>
+        <v>1415</v>
       </c>
       <c r="K28" t="str">
-        <v>OL</v>
+        <v>ONLINE</v>
       </c>
       <c r="L28" t="str">
-        <v>H</v>
+        <v>F</v>
       </c>
       <c r="M28" t="str">
-        <v>915</v>
+        <v>1245</v>
       </c>
       <c r="N28" t="str">
-        <v>1045</v>
+        <v>1415</v>
       </c>
       <c r="O28" t="str">
-        <v>GT207</v>
-      </c>
-      <c r="P28">
-        <v>40</v>
+        <v>ONLINE</v>
       </c>
       <c r="Q28" t="str">
-        <v>HYBRID</v>
+        <v>FULLONLINE</v>
       </c>
     </row>
     <row r="29">
@@ -1594,43 +1588,43 @@
         <v/>
       </c>
       <c r="C29" t="str">
-        <v>LCASEAN</v>
+        <v>LCFILIA (GELECSP)</v>
       </c>
       <c r="D29" t="str">
-        <v>The Filipino and ASEAN</v>
+        <v>GE Social Science &amp; Philosophy Elective</v>
       </c>
       <c r="E29" t="str">
         <v>X</v>
       </c>
       <c r="F29" t="str">
-        <v>YA1</v>
+        <v>ZE1</v>
       </c>
       <c r="G29" t="str">
-        <v>LORENZO, VICTORIO JOSEPH</v>
+        <v>JUMAQUIO-ARDALES, ALONA</v>
       </c>
       <c r="H29" t="str">
         <v>T</v>
       </c>
       <c r="I29" t="str">
-        <v>1430</v>
+        <v>730</v>
       </c>
       <c r="J29" t="str">
-        <v>1600</v>
+        <v>900</v>
       </c>
       <c r="K29" t="str">
-        <v>MRE201</v>
+        <v>OL</v>
       </c>
       <c r="L29" t="str">
         <v>F</v>
       </c>
       <c r="M29" t="str">
-        <v>1430</v>
+        <v>730</v>
       </c>
       <c r="N29" t="str">
-        <v>1600</v>
+        <v>900</v>
       </c>
       <c r="O29" t="str">
-        <v>OL</v>
+        <v>MRE303</v>
       </c>
       <c r="P29">
         <v>40</v>
@@ -1647,46 +1641,43 @@
         <v/>
       </c>
       <c r="C30" t="str">
-        <v>LCFAITH</v>
+        <v>LCFILIB (GELECST)</v>
       </c>
       <c r="D30" t="str">
-        <v>Faith Worth Living</v>
+        <v xml:space="preserve">G.E. Elective - Science and Technology </v>
       </c>
       <c r="E30" t="str">
         <v>X</v>
       </c>
       <c r="F30" t="str">
-        <v>ZE1</v>
+        <v>Y22</v>
       </c>
       <c r="G30" t="str">
-        <v>LACSA, JOSE</v>
+        <v>MANGARAN, MON KARLO</v>
       </c>
       <c r="H30" t="str">
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="I30" t="str">
-        <v>1100</v>
+        <v>1430</v>
       </c>
       <c r="J30" t="str">
-        <v>1230</v>
+        <v>1600</v>
       </c>
       <c r="K30" t="str">
+        <v>GT201</v>
+      </c>
+      <c r="L30" t="str">
+        <v>F</v>
+      </c>
+      <c r="M30" t="str">
+        <v>1430</v>
+      </c>
+      <c r="N30" t="str">
+        <v>1600</v>
+      </c>
+      <c r="O30" t="str">
         <v>OL</v>
-      </c>
-      <c r="L30" t="str">
-        <v>S</v>
-      </c>
-      <c r="M30" t="str">
-        <v>1100</v>
-      </c>
-      <c r="N30" t="str">
-        <v>1230</v>
-      </c>
-      <c r="O30" t="str">
-        <v>MRE304</v>
-      </c>
-      <c r="P30">
-        <v>40</v>
       </c>
       <c r="Q30" t="str">
         <v>HYBRID</v>
@@ -1697,52 +1688,37 @@
         <v/>
       </c>
       <c r="B31" t="str">
-        <v>BSIET-AD-123 (30)</v>
+        <v/>
       </c>
       <c r="C31" t="str">
-        <v>LCFAITH</v>
+        <v>LCLSTRI</v>
       </c>
       <c r="D31" t="str">
-        <v>Faith Worth Living</v>
+        <v xml:space="preserve">Lasallian Studies 3 </v>
       </c>
       <c r="E31" t="str">
         <v>X</v>
       </c>
       <c r="F31" t="str">
-        <v>YA1</v>
+        <v>Y22</v>
       </c>
       <c r="G31" t="str">
-        <v>CANETE, JONATHAN</v>
+        <v>STA.AGUEDA, JOSEPH</v>
       </c>
       <c r="H31" t="str">
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="I31" t="str">
-        <v>915</v>
+        <v>830</v>
       </c>
       <c r="J31" t="str">
-        <v>1045</v>
+        <v>1030</v>
       </c>
       <c r="K31" t="str">
-        <v>MRW213</v>
-      </c>
-      <c r="L31" t="str">
-        <v>F</v>
-      </c>
-      <c r="M31" t="str">
-        <v>915</v>
-      </c>
-      <c r="N31" t="str">
-        <v>1045</v>
-      </c>
-      <c r="O31" t="str">
-        <v>OL</v>
-      </c>
-      <c r="P31">
-        <v>40</v>
+        <v>full online</v>
       </c>
       <c r="Q31" t="str">
-        <v>HYBRID</v>
+        <v>FULLONLINE</v>
       </c>
     </row>
     <row r="32">
@@ -1753,49 +1729,37 @@
         <v/>
       </c>
       <c r="C32" t="str">
-        <v>LCFILIA (GELECSP)</v>
+        <v>LCLSTWO</v>
       </c>
       <c r="D32" t="str">
-        <v>Social Science and Philosophy (2B)</v>
+        <v>Lasallian Studies 2</v>
       </c>
       <c r="E32" t="str">
         <v>X</v>
       </c>
       <c r="F32" t="str">
-        <v>ZE2</v>
+        <v>YA1</v>
       </c>
       <c r="G32" t="str">
-        <v>DONES, DONNER</v>
+        <v>ESCOLANO, CYRIL</v>
       </c>
       <c r="H32" t="str">
         <v>W</v>
       </c>
       <c r="I32" t="str">
-        <v>1245</v>
+        <v>1000</v>
       </c>
       <c r="J32" t="str">
-        <v>1415</v>
+        <v>1200</v>
       </c>
       <c r="K32" t="str">
-        <v>OL</v>
-      </c>
-      <c r="L32" t="str">
-        <v>S</v>
-      </c>
-      <c r="M32" t="str">
-        <v>1245</v>
-      </c>
-      <c r="N32" t="str">
-        <v>1415</v>
-      </c>
-      <c r="O32" t="str">
-        <v>MRE304</v>
+        <v>full online</v>
       </c>
       <c r="P32">
         <v>40</v>
       </c>
       <c r="Q32" t="str">
-        <v>HYBRID</v>
+        <v>FULLONLINE</v>
       </c>
     </row>
     <row r="33">
@@ -1803,13 +1767,13 @@
         <v/>
       </c>
       <c r="B33" t="str">
-        <v>BSIET-AD-123 (30)</v>
+        <v/>
       </c>
       <c r="C33" t="str">
-        <v>LCFILIA (GELECSP)</v>
+        <v>LCLSTWO</v>
       </c>
       <c r="D33" t="str">
-        <v>G.E. Elective - Social Science/Philosophy</v>
+        <v>Lasallian Studies 2</v>
       </c>
       <c r="E33" t="str">
         <v>X</v>
@@ -1818,37 +1782,22 @@
         <v>Y22</v>
       </c>
       <c r="G33" t="str">
-        <v>JUMAQUIO-ARDALES, ALONA</v>
+        <v>DEVEAS, DONABEL</v>
       </c>
       <c r="H33" t="str">
-        <v>M</v>
+        <v>W</v>
       </c>
       <c r="I33" t="str">
-        <v>1615</v>
+        <v>1230</v>
       </c>
       <c r="J33" t="str">
-        <v>1745</v>
+        <v>1430</v>
       </c>
       <c r="K33" t="str">
-        <v>GT203</v>
-      </c>
-      <c r="L33" t="str">
-        <v>H</v>
-      </c>
-      <c r="M33" t="str">
-        <v>1615</v>
-      </c>
-      <c r="N33" t="str">
-        <v>1745</v>
-      </c>
-      <c r="O33" t="str">
-        <v>OL</v>
-      </c>
-      <c r="P33">
-        <v>40</v>
+        <v>full online</v>
       </c>
       <c r="Q33" t="str">
-        <v>HYBRID</v>
+        <v>FULLONLINE</v>
       </c>
     </row>
     <row r="34">
@@ -1859,46 +1808,49 @@
         <v/>
       </c>
       <c r="C34" t="str">
-        <v>LCFILIA (GELECSP)</v>
+        <v>GESTSOC</v>
       </c>
       <c r="D34" t="str">
-        <v>G.E. Social Science/Philosophy Elective</v>
+        <v>Science, Technology and the Society</v>
       </c>
       <c r="E34" t="str">
         <v>X</v>
       </c>
       <c r="F34" t="str">
-        <v>ZB1</v>
+        <v>Y22</v>
       </c>
       <c r="G34" t="str">
-        <v>JUMAQUIO-ARDALES, ALONA</v>
+        <v>ERA, MARLON</v>
       </c>
       <c r="H34" t="str">
         <v>T</v>
       </c>
       <c r="I34" t="str">
-        <v>1245</v>
+        <v>915</v>
       </c>
       <c r="J34" t="str">
-        <v>1415</v>
+        <v>1045</v>
       </c>
       <c r="K34" t="str">
-        <v>ONLINE</v>
+        <v>GT208</v>
       </c>
       <c r="L34" t="str">
         <v>F</v>
       </c>
       <c r="M34" t="str">
-        <v>1245</v>
+        <v>915</v>
       </c>
       <c r="N34" t="str">
-        <v>1415</v>
+        <v>1045</v>
       </c>
       <c r="O34" t="str">
-        <v>ONLINE</v>
+        <v>OL</v>
+      </c>
+      <c r="P34">
+        <v>40</v>
       </c>
       <c r="Q34" t="str">
-        <v>FULLONLINE</v>
+        <v>HYBRID</v>
       </c>
     </row>
     <row r="35">
@@ -1909,28 +1861,28 @@
         <v/>
       </c>
       <c r="C35" t="str">
-        <v>LCFILIA (GELECSP)</v>
+        <v>GEARTAP</v>
       </c>
       <c r="D35" t="str">
-        <v>GE Social Science &amp; Philosophy Elective</v>
+        <v>Art Appreciation</v>
       </c>
       <c r="E35" t="str">
         <v>X</v>
       </c>
       <c r="F35" t="str">
-        <v>ZE1</v>
+        <v>YA1</v>
       </c>
       <c r="G35" t="str">
-        <v>JUMAQUIO-ARDALES, ALONA</v>
+        <v>Liwanag, Leslie Anne</v>
       </c>
       <c r="H35" t="str">
         <v>T</v>
       </c>
       <c r="I35" t="str">
-        <v>730</v>
+        <v>1100</v>
       </c>
       <c r="J35" t="str">
-        <v>900</v>
+        <v>1230</v>
       </c>
       <c r="K35" t="str">
         <v>OL</v>
@@ -1939,13 +1891,13 @@
         <v>F</v>
       </c>
       <c r="M35" t="str">
-        <v>730</v>
+        <v>1100</v>
       </c>
       <c r="N35" t="str">
-        <v>900</v>
+        <v>1230</v>
       </c>
       <c r="O35" t="str">
-        <v>MRE303</v>
+        <v>MRW204</v>
       </c>
       <c r="P35">
         <v>40</v>
@@ -1962,22 +1914,22 @@
         <v/>
       </c>
       <c r="C36" t="str">
-        <v>LCFILIB (GELECST)</v>
+        <v>GEPCOMM</v>
       </c>
       <c r="D36" t="str">
-        <v xml:space="preserve">G.E. Elective - Science and Technology </v>
+        <v>Purposive Communications (2A)</v>
       </c>
       <c r="E36" t="str">
         <v>X</v>
       </c>
       <c r="F36" t="str">
-        <v>Y22</v>
+        <v>ZE1</v>
       </c>
       <c r="G36" t="str">
-        <v>MANGARAN, MON KARLO</v>
+        <v>STERLING PLATA</v>
       </c>
       <c r="H36" t="str">
-        <v>T</v>
+        <v>M</v>
       </c>
       <c r="I36" t="str">
         <v>1430</v>
@@ -1986,10 +1938,10 @@
         <v>1600</v>
       </c>
       <c r="K36" t="str">
-        <v>GT201</v>
+        <v>OL</v>
       </c>
       <c r="L36" t="str">
-        <v>F</v>
+        <v>H</v>
       </c>
       <c r="M36" t="str">
         <v>1430</v>
@@ -1998,7 +1950,10 @@
         <v>1600</v>
       </c>
       <c r="O36" t="str">
-        <v>OL</v>
+        <v>MRW204</v>
+      </c>
+      <c r="P36">
+        <v>40</v>
       </c>
       <c r="Q36" t="str">
         <v>HYBRID</v>
@@ -2012,43 +1967,43 @@
         <v/>
       </c>
       <c r="C37" t="str">
-        <v>LCFILIB (GELECST)</v>
+        <v>GERPHIS</v>
       </c>
       <c r="D37" t="str">
-        <v>G.E. Science &amp; Technology</v>
+        <v>Readings in Philippine History</v>
       </c>
       <c r="E37" t="str">
         <v>X</v>
       </c>
       <c r="F37" t="str">
-        <v>ZE1</v>
+        <v>YA1</v>
       </c>
       <c r="G37" t="str">
-        <v>DONES, DONNER</v>
+        <v>DABUET, EASTER JOY</v>
       </c>
       <c r="H37" t="str">
         <v>M</v>
       </c>
       <c r="I37" t="str">
-        <v>730</v>
+        <v>1100</v>
       </c>
       <c r="J37" t="str">
-        <v>900</v>
+        <v>1230</v>
       </c>
       <c r="K37" t="str">
-        <v>OL</v>
+        <v>MRE201</v>
       </c>
       <c r="L37" t="str">
         <v>H</v>
       </c>
       <c r="M37" t="str">
-        <v>730</v>
+        <v>1100</v>
       </c>
       <c r="N37" t="str">
-        <v>900</v>
+        <v>1230</v>
       </c>
       <c r="O37" t="str">
-        <v>MRE304</v>
+        <v>OL</v>
       </c>
       <c r="P37">
         <v>40</v>
@@ -2065,22 +2020,22 @@
         <v/>
       </c>
       <c r="C38" t="str">
-        <v>LCFILIC</v>
+        <v>GEWORLD</v>
       </c>
       <c r="D38" t="str">
-        <v>Kultura, Media at Teknolohiya</v>
+        <v>Contemporary World</v>
       </c>
       <c r="E38" t="str">
         <v>X</v>
       </c>
       <c r="F38" t="str">
-        <v>YA1</v>
+        <v>ZC1</v>
       </c>
       <c r="G38" t="str">
-        <v>JUMAQUIO-ARDALES, ALONA</v>
+        <v>SANTOS, CONSUELO ANGELA L.</v>
       </c>
       <c r="H38" t="str">
-        <v>T</v>
+        <v>M</v>
       </c>
       <c r="I38" t="str">
         <v>1100</v>
@@ -2089,10 +2044,10 @@
         <v>1230</v>
       </c>
       <c r="K38" t="str">
-        <v>MRW213</v>
+        <v>OL</v>
       </c>
       <c r="L38" t="str">
-        <v>F</v>
+        <v>H</v>
       </c>
       <c r="M38" t="str">
         <v>1100</v>
@@ -2101,7 +2056,7 @@
         <v>1230</v>
       </c>
       <c r="O38" t="str">
-        <v>OL</v>
+        <v>GT206</v>
       </c>
       <c r="P38">
         <v>40</v>
@@ -2118,37 +2073,49 @@
         <v/>
       </c>
       <c r="C39" t="str">
-        <v>LCLSONE</v>
+        <v>LCFILIA (GELECSP)</v>
       </c>
       <c r="D39" t="str">
-        <v>Lasallian Studies 1</v>
+        <v>Social Science and Philosophy (2B)</v>
       </c>
       <c r="E39" t="str">
         <v>X</v>
       </c>
       <c r="F39" t="str">
-        <v>Y22</v>
+        <v>ZE2</v>
       </c>
       <c r="G39" t="str">
-        <v>ESCOLANO, CYRIL</v>
+        <v>DONES, DONNER</v>
       </c>
       <c r="H39" t="str">
         <v>W</v>
       </c>
       <c r="I39" t="str">
-        <v>730</v>
+        <v>1245</v>
       </c>
       <c r="J39" t="str">
-        <v>930</v>
+        <v>1415</v>
       </c>
       <c r="K39" t="str">
-        <v>full online</v>
+        <v>OL</v>
+      </c>
+      <c r="L39" t="str">
+        <v>S</v>
+      </c>
+      <c r="M39" t="str">
+        <v>1245</v>
+      </c>
+      <c r="N39" t="str">
+        <v>1415</v>
+      </c>
+      <c r="O39" t="str">
+        <v>MRE304</v>
       </c>
       <c r="P39">
         <v>40</v>
       </c>
       <c r="Q39" t="str">
-        <v>FULLONLINE</v>
+        <v>HYBRID</v>
       </c>
     </row>
     <row r="40">
@@ -2156,40 +2123,52 @@
         <v/>
       </c>
       <c r="B40" t="str">
-        <v/>
+        <v>BSIET-AD-123 (30)</v>
       </c>
       <c r="C40" t="str">
-        <v>LCLSONE</v>
+        <v>LCFILIA (GELECSP)</v>
       </c>
       <c r="D40" t="str">
-        <v>Lasallian Studeis 1</v>
+        <v>G.E. Elective - Social Science/Philosophy</v>
       </c>
       <c r="E40" t="str">
         <v>X</v>
       </c>
       <c r="F40" t="str">
-        <v>ZE1</v>
+        <v>Y22</v>
       </c>
       <c r="G40" t="str">
-        <v>UNAS, OSCAR</v>
+        <v>JUMAQUIO-ARDALES, ALONA</v>
       </c>
       <c r="H40" t="str">
-        <v>W</v>
+        <v>M</v>
       </c>
       <c r="I40" t="str">
-        <v>1000</v>
+        <v>1615</v>
       </c>
       <c r="J40" t="str">
-        <v>1200</v>
+        <v>1745</v>
       </c>
       <c r="K40" t="str">
-        <v>full online</v>
+        <v>GT203</v>
+      </c>
+      <c r="L40" t="str">
+        <v>H</v>
+      </c>
+      <c r="M40" t="str">
+        <v>1615</v>
+      </c>
+      <c r="N40" t="str">
+        <v>1745</v>
+      </c>
+      <c r="O40" t="str">
+        <v>OL</v>
       </c>
       <c r="P40">
         <v>40</v>
       </c>
       <c r="Q40" t="str">
-        <v>FULLONLINE</v>
+        <v>HYBRID</v>
       </c>
     </row>
     <row r="41">
@@ -2209,10 +2188,10 @@
         <v>X</v>
       </c>
       <c r="F41" t="str">
-        <v>ZE2</v>
+        <v>Y22</v>
       </c>
       <c r="G41" t="str">
-        <v>UNAS, OSCAR</v>
+        <v>ESCOLANO, CYRIL</v>
       </c>
       <c r="H41" t="str">
         <v>W</v>
@@ -2241,34 +2220,49 @@
         <v/>
       </c>
       <c r="C42" t="str">
-        <v>LCLSTRI</v>
+        <v>GESTSOC</v>
       </c>
       <c r="D42" t="str">
-        <v xml:space="preserve">Lasallian Studies 3 </v>
+        <v>Science, Technology and Society</v>
       </c>
       <c r="E42" t="str">
         <v>X</v>
       </c>
       <c r="F42" t="str">
-        <v>Y22</v>
+        <v>ZE1</v>
       </c>
       <c r="G42" t="str">
-        <v>STA.AGUEDA, JOSEPH</v>
+        <v>CANETE, JONATHAN JAMES</v>
       </c>
       <c r="H42" t="str">
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="I42" t="str">
-        <v>830</v>
+        <v>1100</v>
       </c>
       <c r="J42" t="str">
-        <v>1030</v>
+        <v>1230</v>
       </c>
       <c r="K42" t="str">
-        <v>full online</v>
+        <v>OL</v>
+      </c>
+      <c r="L42" t="str">
+        <v>F</v>
+      </c>
+      <c r="M42" t="str">
+        <v>1100</v>
+      </c>
+      <c r="N42" t="str">
+        <v>1230</v>
+      </c>
+      <c r="O42" t="str">
+        <v>MRW204</v>
+      </c>
+      <c r="P42">
+        <v>40</v>
       </c>
       <c r="Q42" t="str">
-        <v>FULLONLINE</v>
+        <v>HYBRID</v>
       </c>
     </row>
     <row r="43">
@@ -2276,37 +2270,49 @@
         <v/>
       </c>
       <c r="B43" t="str">
-        <v/>
+        <v>BSCS-ST-122 (20), BSIET-GD-122 (30), BSIET-AD-123 (30)</v>
       </c>
       <c r="C43" t="str">
-        <v>LCLSTRI</v>
+        <v>GEPCOMM</v>
       </c>
       <c r="D43" t="str">
-        <v>Lasallian Studies 3</v>
+        <v>Purposive Communications (2A)</v>
       </c>
       <c r="E43" t="str">
         <v>X</v>
       </c>
       <c r="F43" t="str">
-        <v>ZC1</v>
-      </c>
-      <c r="G43" t="str">
-        <v>LIM, GIAN</v>
+        <v>ZE2</v>
       </c>
       <c r="H43" t="str">
+        <v>T</v>
+      </c>
+      <c r="I43" t="str">
+        <v>1245</v>
+      </c>
+      <c r="J43" t="str">
+        <v>1415</v>
+      </c>
+      <c r="K43" t="str">
+        <v>OL</v>
+      </c>
+      <c r="L43" t="str">
         <v>F</v>
       </c>
-      <c r="I43" t="str">
-        <v>1300</v>
-      </c>
-      <c r="J43" t="str">
-        <v>1500</v>
-      </c>
-      <c r="K43" t="str">
-        <v>full online</v>
+      <c r="M43" t="str">
+        <v>1245</v>
+      </c>
+      <c r="N43" t="str">
+        <v>1415</v>
+      </c>
+      <c r="O43" t="str">
+        <v>MRE304</v>
+      </c>
+      <c r="P43">
+        <v>40</v>
       </c>
       <c r="Q43" t="str">
-        <v>FULLONLINE</v>
+        <v>HYBRID</v>
       </c>
     </row>
     <row r="44">
@@ -2317,37 +2323,40 @@
         <v/>
       </c>
       <c r="C44" t="str">
-        <v>LCLSTWO</v>
+        <v>GEARTAP</v>
       </c>
       <c r="D44" t="str">
-        <v>Lasallian Studies 2</v>
+        <v>Art Appreciation</v>
       </c>
       <c r="E44" t="str">
         <v>X</v>
       </c>
       <c r="F44" t="str">
-        <v>YA1</v>
+        <v>ZE1</v>
       </c>
       <c r="G44" t="str">
-        <v>ESCOLANO, CYRIL</v>
+        <v>Liwanag, Leslie Anne</v>
       </c>
       <c r="H44" t="str">
-        <v>W</v>
+        <v>M</v>
       </c>
       <c r="I44" t="str">
-        <v>1000</v>
+        <v>915</v>
       </c>
       <c r="J44" t="str">
-        <v>1200</v>
+        <v>1045</v>
       </c>
       <c r="K44" t="str">
-        <v>full online</v>
-      </c>
-      <c r="P44">
-        <v>40</v>
-      </c>
-      <c r="Q44" t="str">
-        <v>FULLONLINE</v>
+        <v>OL</v>
+      </c>
+      <c r="L44" t="str">
+        <v>H</v>
+      </c>
+      <c r="M44" t="str">
+        <v>915</v>
+      </c>
+      <c r="N44" t="str">
+        <v>1045</v>
       </c>
     </row>
     <row r="45">
@@ -2358,34 +2367,49 @@
         <v/>
       </c>
       <c r="C45" t="str">
-        <v>LCLSTWO</v>
+        <v>LCFAITH</v>
       </c>
       <c r="D45" t="str">
-        <v>Lasallian Studies 2</v>
+        <v>Faith Worth Living</v>
       </c>
       <c r="E45" t="str">
         <v>X</v>
       </c>
       <c r="F45" t="str">
-        <v>Y22</v>
+        <v>ZE1</v>
       </c>
       <c r="G45" t="str">
-        <v>DEVEAS, DONABEL</v>
+        <v>LACSA, JOSE</v>
       </c>
       <c r="H45" t="str">
         <v>W</v>
       </c>
       <c r="I45" t="str">
+        <v>1100</v>
+      </c>
+      <c r="J45" t="str">
         <v>1230</v>
       </c>
-      <c r="J45" t="str">
-        <v>1430</v>
-      </c>
       <c r="K45" t="str">
-        <v>full online</v>
+        <v>OL</v>
+      </c>
+      <c r="L45" t="str">
+        <v>S</v>
+      </c>
+      <c r="M45" t="str">
+        <v>1100</v>
+      </c>
+      <c r="N45" t="str">
+        <v>1230</v>
+      </c>
+      <c r="O45" t="str">
+        <v>MRE304</v>
+      </c>
+      <c r="P45">
+        <v>40</v>
       </c>
       <c r="Q45" t="str">
-        <v>FULLONLINE</v>
+        <v>HYBRID</v>
       </c>
     </row>
     <row r="46">
@@ -2396,10 +2420,10 @@
         <v/>
       </c>
       <c r="C46" t="str">
-        <v>GESTSOC</v>
+        <v>LCFILIB (GELECST)</v>
       </c>
       <c r="D46" t="str">
-        <v>Science, Technology and Society</v>
+        <v>G.E. Science &amp; Technology</v>
       </c>
       <c r="E46" t="str">
         <v>X</v>
@@ -2408,31 +2432,31 @@
         <v>ZE1</v>
       </c>
       <c r="G46" t="str">
-        <v>CANETE, JONATHAN JAMES</v>
+        <v>DONES, DONNER</v>
       </c>
       <c r="H46" t="str">
-        <v>T</v>
+        <v>M</v>
       </c>
       <c r="I46" t="str">
-        <v>1100</v>
+        <v>730</v>
       </c>
       <c r="J46" t="str">
-        <v>1230</v>
+        <v>900</v>
       </c>
       <c r="K46" t="str">
         <v>OL</v>
       </c>
       <c r="L46" t="str">
-        <v>F</v>
+        <v>H</v>
       </c>
       <c r="M46" t="str">
-        <v>1100</v>
+        <v>730</v>
       </c>
       <c r="N46" t="str">
-        <v>1230</v>
+        <v>900</v>
       </c>
       <c r="O46" t="str">
-        <v>MRW204</v>
+        <v>MRE304</v>
       </c>
       <c r="P46">
         <v>40</v>
@@ -2449,40 +2473,40 @@
         <v/>
       </c>
       <c r="C47" t="str">
-        <v>GESTSOC</v>
+        <v>LCFILIC</v>
       </c>
       <c r="D47" t="str">
-        <v>Science, Technology and the Society</v>
+        <v>Kultura, Media at Teknolohiya</v>
       </c>
       <c r="E47" t="str">
         <v>X</v>
       </c>
       <c r="F47" t="str">
-        <v>Y22</v>
+        <v>YA1</v>
       </c>
       <c r="G47" t="str">
-        <v>ERA, MARLON</v>
+        <v>JUMAQUIO-ARDALES, ALONA</v>
       </c>
       <c r="H47" t="str">
         <v>T</v>
       </c>
       <c r="I47" t="str">
-        <v>915</v>
+        <v>1100</v>
       </c>
       <c r="J47" t="str">
-        <v>1045</v>
+        <v>1230</v>
       </c>
       <c r="K47" t="str">
-        <v>GT208</v>
+        <v>MRW213</v>
       </c>
       <c r="L47" t="str">
         <v>F</v>
       </c>
       <c r="M47" t="str">
-        <v>915</v>
+        <v>1100</v>
       </c>
       <c r="N47" t="str">
-        <v>1045</v>
+        <v>1230</v>
       </c>
       <c r="O47" t="str">
         <v>OL</v>
@@ -2499,52 +2523,37 @@
         <v/>
       </c>
       <c r="B48" t="str">
-        <v>BSCS-ST-121 (5), BSIS-121 (10), BSIET-GD-123 (10), BSIET-AD-123 (30)</v>
+        <v/>
       </c>
       <c r="C48" t="str">
-        <v>GESTSOC</v>
+        <v>LCLSTRI</v>
       </c>
       <c r="D48" t="str">
-        <v>Science, Technology and the Society</v>
+        <v>Lasallian Studies 3</v>
       </c>
       <c r="E48" t="str">
         <v>X</v>
       </c>
       <c r="F48" t="str">
-        <v>YA1</v>
+        <v>ZC1</v>
       </c>
       <c r="G48" t="str">
-        <v>ERA, MARLON</v>
+        <v>LIM, GIAN</v>
       </c>
       <c r="H48" t="str">
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="I48" t="str">
-        <v>1245</v>
+        <v>1300</v>
       </c>
       <c r="J48" t="str">
-        <v>1415</v>
+        <v>1500</v>
       </c>
       <c r="K48" t="str">
-        <v>MRE113</v>
-      </c>
-      <c r="L48" t="str">
-        <v>F</v>
-      </c>
-      <c r="M48" t="str">
-        <v>1245</v>
-      </c>
-      <c r="N48" t="str">
-        <v>1415</v>
-      </c>
-      <c r="O48" t="str">
-        <v>OL</v>
-      </c>
-      <c r="P48">
-        <v>40</v>
+        <v>full online</v>
       </c>
       <c r="Q48" t="str">
-        <v>HYBRID</v>
+        <v>FULLONLINE</v>
       </c>
     </row>
     <row r="49">
@@ -2552,28 +2561,31 @@
         <v/>
       </c>
       <c r="B49" t="str">
-        <v>BSCS-ST-122 (20), BSIET-GD-122 (30), BSIET-AD-123 (30)</v>
+        <v/>
       </c>
       <c r="C49" t="str">
-        <v>GEPCOMM</v>
+        <v>IMAWRIT</v>
       </c>
       <c r="D49" t="str">
-        <v>Purposive Communications (2A)</v>
+        <v>Imaginative Writing</v>
       </c>
       <c r="E49" t="str">
         <v>X</v>
       </c>
       <c r="F49" t="str">
-        <v>ZE2</v>
+        <v>YA1</v>
+      </c>
+      <c r="G49" t="str">
+        <v>mamaue</v>
       </c>
       <c r="H49" t="str">
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="I49" t="str">
-        <v>1245</v>
+        <v>730</v>
       </c>
       <c r="J49" t="str">
-        <v>1415</v>
+        <v>1930</v>
       </c>
       <c r="K49" t="str">
         <v>OL</v>
@@ -2582,77 +2594,77 @@
         <v>F</v>
       </c>
       <c r="M49" t="str">
-        <v>1245</v>
+        <v>915</v>
       </c>
       <c r="N49" t="str">
-        <v>1415</v>
+        <v>1045</v>
       </c>
       <c r="O49" t="str">
-        <v>MRE304</v>
+        <v>OL</v>
       </c>
       <c r="P49">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="Q49" t="str">
-        <v>HYBRID</v>
+        <v>wewweewewe</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v/>
-      </c>
-      <c r="B50" t="str">
-        <v/>
-      </c>
-      <c r="C50" t="str">
-        <v>IMAWRIT</v>
-      </c>
-      <c r="D50" t="str">
-        <v>Imaginative Writing</v>
-      </c>
-      <c r="E50" t="str">
-        <v>X</v>
-      </c>
-      <c r="F50" t="str">
-        <v>YA1</v>
-      </c>
-      <c r="G50" t="str">
-        <v>mamaue</v>
-      </c>
-      <c r="H50" t="str">
-        <v>W</v>
-      </c>
-      <c r="I50" t="str">
-        <v>730</v>
-      </c>
-      <c r="J50" t="str">
-        <v>1930</v>
-      </c>
-      <c r="K50" t="str">
-        <v>OL</v>
-      </c>
-      <c r="L50" t="str">
-        <v>F</v>
-      </c>
-      <c r="M50" t="str">
-        <v>915</v>
-      </c>
-      <c r="N50" t="str">
-        <v>1045</v>
-      </c>
-      <c r="O50" t="str">
-        <v>OL</v>
-      </c>
-      <c r="P50">
-        <v>45</v>
-      </c>
-      <c r="Q50" t="str">
-        <v>wewweewewe</v>
+        <v>CCS</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>CCS</v>
+        <v/>
+      </c>
+      <c r="B51" t="str">
+        <v/>
+      </c>
+      <c r="C51" t="str">
+        <v>CCPROG3</v>
+      </c>
+      <c r="D51" t="str">
+        <v>Object Oriented Programming</v>
+      </c>
+      <c r="E51" t="str">
+        <v>X</v>
+      </c>
+      <c r="F51" t="str">
+        <v>22A</v>
+      </c>
+      <c r="G51" t="str">
+        <v>MATIAS, ANGELO</v>
+      </c>
+      <c r="H51" t="str">
+        <v>M</v>
+      </c>
+      <c r="I51" t="str">
+        <v>1245</v>
+      </c>
+      <c r="J51" t="str">
+        <v>1415</v>
+      </c>
+      <c r="K51" t="str">
+        <v>RL208</v>
+      </c>
+      <c r="L51" t="str">
+        <v>H</v>
+      </c>
+      <c r="M51" t="str">
+        <v>1245</v>
+      </c>
+      <c r="N51" t="str">
+        <v>1415</v>
+      </c>
+      <c r="O51" t="str">
+        <v>ONLINE</v>
+      </c>
+      <c r="P51">
+        <v>19</v>
+      </c>
+      <c r="Q51" t="str">
+        <v>HYBRID</v>
       </c>
     </row>
     <row r="52">
@@ -2663,46 +2675,46 @@
         <v/>
       </c>
       <c r="C52" t="str">
-        <v>CCPROG3</v>
+        <v>ADART-3</v>
       </c>
       <c r="D52" t="str">
-        <v>Object Oriented Programming</v>
+        <v>Environment Art</v>
       </c>
       <c r="E52" t="str">
         <v>X</v>
       </c>
       <c r="F52" t="str">
-        <v>22A</v>
+        <v>22</v>
       </c>
       <c r="G52" t="str">
-        <v>MATIAS, ANGELO</v>
+        <v>SALDIVAR, ROLAND</v>
       </c>
       <c r="H52" t="str">
         <v>M</v>
       </c>
       <c r="I52" t="str">
-        <v>1245</v>
+        <v>915</v>
       </c>
       <c r="J52" t="str">
-        <v>1415</v>
+        <v>1045</v>
       </c>
       <c r="K52" t="str">
-        <v>RL208</v>
+        <v>GT203</v>
       </c>
       <c r="L52" t="str">
         <v>H</v>
       </c>
       <c r="M52" t="str">
-        <v>1245</v>
+        <v>915</v>
       </c>
       <c r="N52" t="str">
-        <v>1415</v>
+        <v>1045</v>
       </c>
       <c r="O52" t="str">
         <v>ONLINE</v>
       </c>
       <c r="P52">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="Q52" t="str">
         <v>HYBRID</v>
@@ -2716,46 +2728,46 @@
         <v/>
       </c>
       <c r="C53" t="str">
-        <v>CCPROG3</v>
+        <v>GDPROG2</v>
       </c>
       <c r="D53" t="str">
-        <v>Object Oriented Programming</v>
+        <v>Advanced Computer Programming in C</v>
       </c>
       <c r="E53" t="str">
         <v>X</v>
       </c>
       <c r="F53" t="str">
-        <v>22B</v>
+        <v>22A</v>
       </c>
       <c r="G53" t="str">
-        <v>MATIAS, ANGELO</v>
+        <v>CONTRERAS, JENNIFER</v>
       </c>
       <c r="H53" t="str">
         <v>M</v>
       </c>
       <c r="I53" t="str">
-        <v>1430</v>
+        <v>915</v>
       </c>
       <c r="J53" t="str">
-        <v>1600</v>
+        <v>1045</v>
       </c>
       <c r="K53" t="str">
-        <v>RL208</v>
+        <v>RL202</v>
       </c>
       <c r="L53" t="str">
         <v>H</v>
       </c>
       <c r="M53" t="str">
-        <v>1245</v>
+        <v>915</v>
       </c>
       <c r="N53" t="str">
-        <v>1415</v>
+        <v>1045</v>
       </c>
       <c r="O53" t="str">
         <v>ONLINE</v>
       </c>
       <c r="P53">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q53" t="str">
         <v>HYBRID</v>
@@ -2769,46 +2781,46 @@
         <v/>
       </c>
       <c r="C54" t="str">
-        <v>CCDSALG</v>
+        <v>GDPROG2</v>
       </c>
       <c r="D54" t="str">
-        <v>Data Structures and Algorithms</v>
+        <v>Advanced Computer Programming in C</v>
       </c>
       <c r="E54" t="str">
         <v>X</v>
       </c>
       <c r="F54" t="str">
-        <v>22</v>
+        <v>22B</v>
       </c>
       <c r="G54" t="str">
-        <v>BARFEH, DAVOOD</v>
+        <v>CONTRERAS, JENNIFER</v>
       </c>
       <c r="H54" t="str">
-        <v>T</v>
+        <v>M</v>
       </c>
       <c r="I54" t="str">
-        <v>730</v>
+        <v>1100</v>
       </c>
       <c r="J54" t="str">
-        <v>900</v>
+        <v>1230</v>
       </c>
       <c r="K54" t="str">
-        <v>GT208</v>
+        <v>RL202</v>
       </c>
       <c r="L54" t="str">
-        <v>F</v>
+        <v>H</v>
       </c>
       <c r="M54" t="str">
-        <v>730</v>
+        <v>915</v>
       </c>
       <c r="N54" t="str">
-        <v>900</v>
+        <v>1045</v>
       </c>
       <c r="O54" t="str">
         <v>ONLINE</v>
       </c>
       <c r="P54">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="Q54" t="str">
         <v>HYBRID</v>
@@ -2822,10 +2834,10 @@
         <v/>
       </c>
       <c r="C55" t="str">
-        <v>CSMATH2</v>
+        <v>CCAPDEV</v>
       </c>
       <c r="D55" t="str">
-        <v>Linear Algebra for Computer Science Students</v>
+        <v>Web Application Development</v>
       </c>
       <c r="E55" t="str">
         <v>X</v>
@@ -2834,19 +2846,19 @@
         <v>22</v>
       </c>
       <c r="G55" t="str">
-        <v>GERVACIO, SEVERINO</v>
+        <v>ANTIOQUIA, ARREN</v>
       </c>
       <c r="H55" t="str">
-        <v>M</v>
+        <v>H</v>
       </c>
       <c r="I55" t="str">
-        <v>1615</v>
+        <v>1430</v>
       </c>
       <c r="J55" t="str">
-        <v>1745</v>
+        <v>1600</v>
       </c>
       <c r="K55" t="str">
-        <v>RL301</v>
+        <v>RL208</v>
       </c>
       <c r="L55" t="str">
         <v>H</v>
@@ -2861,7 +2873,7 @@
         <v>ONLINE</v>
       </c>
       <c r="P55">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="Q55" t="str">
         <v>HYBRID</v>
@@ -2875,10 +2887,10 @@
         <v/>
       </c>
       <c r="C56" t="str">
-        <v>STT101A</v>
+        <v>GDADPRG</v>
       </c>
       <c r="D56" t="str">
-        <v>Foundation Course in Statistics</v>
+        <v>Advanced Programming Concepts</v>
       </c>
       <c r="E56" t="str">
         <v>X</v>
@@ -2887,34 +2899,34 @@
         <v>22</v>
       </c>
       <c r="G56" t="str">
-        <v>ALBERTO, ANGELO</v>
+        <v>ESPULGAR, CANDY</v>
       </c>
       <c r="H56" t="str">
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="I56" t="str">
-        <v>1100</v>
+        <v>1430</v>
       </c>
       <c r="J56" t="str">
-        <v>1230</v>
+        <v>1600</v>
       </c>
       <c r="K56" t="str">
-        <v>RL301</v>
+        <v>RL208</v>
       </c>
       <c r="L56" t="str">
-        <v>H</v>
+        <v>F</v>
       </c>
       <c r="M56" t="str">
-        <v>1100</v>
+        <v>1615</v>
       </c>
       <c r="N56" t="str">
-        <v>1230</v>
+        <v>1745</v>
       </c>
       <c r="O56" t="str">
-        <v>ONLINE</v>
+        <v>RL208</v>
       </c>
       <c r="P56">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="Q56" t="str">
         <v>HYBRID</v>
@@ -2928,10 +2940,10 @@
         <v/>
       </c>
       <c r="C57" t="str">
-        <v>IETHEOR</v>
+        <v>GDNETWK</v>
       </c>
       <c r="D57" t="str">
-        <v>Introduction to Computer Game Theory</v>
+        <v>Introduction to Networks and its Application in Games</v>
       </c>
       <c r="E57" t="str">
         <v>X</v>
@@ -2940,7 +2952,7 @@
         <v>22</v>
       </c>
       <c r="G57" t="str">
-        <v>ESGUERRA, TERRENCE</v>
+        <v>MANTUA, JONATHAN</v>
       </c>
       <c r="H57" t="str">
         <v>T</v>
@@ -2952,16 +2964,16 @@
         <v>1045</v>
       </c>
       <c r="K57" t="str">
-        <v>GT203</v>
+        <v>GT201</v>
       </c>
       <c r="L57" t="str">
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="M57" t="str">
-        <v>1100</v>
+        <v>915</v>
       </c>
       <c r="N57" t="str">
-        <v>1230</v>
+        <v>1045</v>
       </c>
       <c r="O57" t="str">
         <v>ONLINE</v>
@@ -2981,10 +2993,10 @@
         <v/>
       </c>
       <c r="C58" t="str">
-        <v>ADNARA1</v>
+        <v>THS-ST3</v>
       </c>
       <c r="D58" t="str">
-        <v>Basic Games Narratives</v>
+        <v>ST Thesis 3</v>
       </c>
       <c r="E58" t="str">
         <v>X</v>
@@ -2993,37 +3005,7 @@
         <v>22</v>
       </c>
       <c r="G58" t="str">
-        <v>TANYAG, JET</v>
-      </c>
-      <c r="H58" t="str">
-        <v>W</v>
-      </c>
-      <c r="I58" t="str">
-        <v>915</v>
-      </c>
-      <c r="J58" t="str">
-        <v>1045</v>
-      </c>
-      <c r="K58" t="str">
-        <v>GT203</v>
-      </c>
-      <c r="L58" t="str">
-        <v>W</v>
-      </c>
-      <c r="M58" t="str">
-        <v>1100</v>
-      </c>
-      <c r="N58" t="str">
-        <v>1230</v>
-      </c>
-      <c r="O58" t="str">
-        <v>ONLINE</v>
-      </c>
-      <c r="P58">
-        <v>40</v>
-      </c>
-      <c r="Q58" t="str">
-        <v>HYBRID</v>
+        <v>TIGHE, EDWARD</v>
       </c>
     </row>
     <row r="59">
@@ -3034,10 +3016,10 @@
         <v/>
       </c>
       <c r="C59" t="str">
-        <v>ADART-3</v>
+        <v>CCINOV8</v>
       </c>
       <c r="D59" t="str">
-        <v>Environment Art</v>
+        <v>Innovation and Technology Management</v>
       </c>
       <c r="E59" t="str">
         <v>X</v>
@@ -3046,31 +3028,31 @@
         <v>22</v>
       </c>
       <c r="G59" t="str">
-        <v>SALDIVAR, ROLAND</v>
+        <v>ENCARNACION, ALAIN</v>
       </c>
       <c r="H59" t="str">
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="I59" t="str">
-        <v>915</v>
+        <v>1615</v>
       </c>
       <c r="J59" t="str">
-        <v>1045</v>
+        <v>1745</v>
       </c>
       <c r="K59" t="str">
-        <v>GT203</v>
+        <v>MRE201</v>
       </c>
       <c r="L59" t="str">
-        <v>H</v>
+        <v>F</v>
       </c>
       <c r="M59" t="str">
-        <v>915</v>
+        <v>1615</v>
       </c>
       <c r="N59" t="str">
-        <v>1045</v>
+        <v>1745</v>
       </c>
       <c r="O59" t="str">
-        <v>ONLINE</v>
+        <v>Online</v>
       </c>
       <c r="P59">
         <v>40</v>
@@ -3087,28 +3069,28 @@
         <v/>
       </c>
       <c r="C60" t="str">
-        <v>GDPROG2</v>
+        <v>ADELEC3-ADPIXEL</v>
       </c>
       <c r="D60" t="str">
-        <v>Advanced Computer Programming in C</v>
+        <v>Game Art and Design Elective 3</v>
       </c>
       <c r="E60" t="str">
         <v>X</v>
       </c>
       <c r="F60" t="str">
-        <v>22A</v>
+        <v>22</v>
       </c>
       <c r="G60" t="str">
-        <v>CONTRERAS, JENNIFER</v>
+        <v>SALDIVAR, ROLAND</v>
       </c>
       <c r="H60" t="str">
         <v>M</v>
       </c>
       <c r="I60" t="str">
-        <v>915</v>
+        <v>1245</v>
       </c>
       <c r="J60" t="str">
-        <v>1045</v>
+        <v>1415</v>
       </c>
       <c r="K60" t="str">
         <v>RL202</v>
@@ -3117,19 +3099,16 @@
         <v>H</v>
       </c>
       <c r="M60" t="str">
-        <v>915</v>
+        <v>1245</v>
       </c>
       <c r="N60" t="str">
-        <v>1045</v>
-      </c>
-      <c r="O60" t="str">
-        <v>ONLINE</v>
+        <v>1415</v>
       </c>
       <c r="P60">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="Q60" t="str">
-        <v>HYBRID</v>
+        <v>ODD weeks = F2F</v>
       </c>
     </row>
     <row r="61">
@@ -3140,34 +3119,34 @@
         <v/>
       </c>
       <c r="C61" t="str">
-        <v>GDPROG2</v>
+        <v>STALGCM</v>
       </c>
       <c r="D61" t="str">
-        <v>Advanced Computer Programming in C</v>
+        <v>Advanced Algorithms and Complexities</v>
       </c>
       <c r="E61" t="str">
         <v>X</v>
       </c>
       <c r="F61" t="str">
-        <v>22B</v>
+        <v>22</v>
       </c>
       <c r="G61" t="str">
-        <v>CONTRERAS, JENNIFER</v>
+        <v>BARFEH, DAVOOD</v>
       </c>
       <c r="H61" t="str">
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="I61" t="str">
-        <v>1100</v>
+        <v>915</v>
       </c>
       <c r="J61" t="str">
-        <v>1230</v>
+        <v>1045</v>
       </c>
       <c r="K61" t="str">
-        <v>RL202</v>
+        <v>GT207</v>
       </c>
       <c r="L61" t="str">
-        <v>H</v>
+        <v>F</v>
       </c>
       <c r="M61" t="str">
         <v>915</v>
@@ -3176,10 +3155,10 @@
         <v>1045</v>
       </c>
       <c r="O61" t="str">
-        <v>ONLINE</v>
+        <v>Online</v>
       </c>
       <c r="P61">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="Q61" t="str">
         <v>HYBRID</v>
@@ -3193,46 +3172,46 @@
         <v/>
       </c>
       <c r="C62" t="str">
-        <v>CSMATH2</v>
+        <v>ADCON-2</v>
       </c>
       <c r="D62" t="str">
-        <v>Linear Algebra for Computer Science Students</v>
+        <v>Concept Art 2 (Creatures and Environment)</v>
       </c>
       <c r="E62" t="str">
         <v>X</v>
       </c>
       <c r="F62" t="str">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G62" t="str">
-        <v>GERVACIO, SEVERINO</v>
+        <v>CARRANCEJA, MICHAEL</v>
       </c>
       <c r="H62" t="str">
         <v>M</v>
       </c>
       <c r="I62" t="str">
-        <v>1430</v>
+        <v>1100</v>
       </c>
       <c r="J62" t="str">
-        <v>1600</v>
+        <v>1230</v>
       </c>
       <c r="K62" t="str">
-        <v>RL301</v>
+        <v>RL209</v>
       </c>
       <c r="L62" t="str">
         <v>H</v>
       </c>
       <c r="M62" t="str">
-        <v>1430</v>
+        <v>1100</v>
       </c>
       <c r="N62" t="str">
-        <v>1600</v>
+        <v>1230</v>
       </c>
       <c r="O62" t="str">
         <v>ONLINE</v>
       </c>
       <c r="P62">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="Q62" t="str">
         <v>HYBRID</v>
@@ -3246,10 +3225,10 @@
         <v/>
       </c>
       <c r="C63" t="str">
-        <v>CCAPDEV</v>
+        <v>GDINTAI</v>
       </c>
       <c r="D63" t="str">
-        <v>Web Application Development</v>
+        <v>Introduction to AI in Games</v>
       </c>
       <c r="E63" t="str">
         <v>X</v>
@@ -3258,37 +3237,37 @@
         <v>22</v>
       </c>
       <c r="G63" t="str">
-        <v>ANTIOQUIA, ARREN</v>
+        <v>CARONONGAN, ARTURO</v>
       </c>
       <c r="H63" t="str">
-        <v>H</v>
+        <v>T</v>
       </c>
       <c r="I63" t="str">
-        <v>1430</v>
+        <v>915</v>
       </c>
       <c r="J63" t="str">
-        <v>1600</v>
+        <v>1045</v>
       </c>
       <c r="K63" t="str">
-        <v>RL208</v>
+        <v>FULL ONLINE</v>
       </c>
       <c r="L63" t="str">
-        <v>H</v>
+        <v>F</v>
       </c>
       <c r="M63" t="str">
-        <v>1615</v>
+        <v>915</v>
       </c>
       <c r="N63" t="str">
-        <v>1745</v>
+        <v>1045</v>
       </c>
       <c r="O63" t="str">
-        <v>ONLINE</v>
+        <v>FULL ONLINE</v>
       </c>
       <c r="P63">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="Q63" t="str">
-        <v>HYBRID</v>
+        <v>FULLONLINE</v>
       </c>
     </row>
     <row r="64">
@@ -3299,49 +3278,46 @@
         <v/>
       </c>
       <c r="C64" t="str">
-        <v>CSARCH1</v>
+        <v>STMETHD</v>
       </c>
       <c r="D64" t="str">
-        <v>Introduction to Computer Organization and Architecture 1</v>
+        <v>ST Research Methods</v>
       </c>
       <c r="E64" t="str">
         <v>X</v>
       </c>
       <c r="F64" t="str">
-        <v>22</v>
+        <v>S1</v>
       </c>
       <c r="G64" t="str">
-        <v>ASABA, HIROKI</v>
+        <v>SAMSON, BRIANE</v>
       </c>
       <c r="H64" t="str">
-        <v>T</v>
+        <v>M</v>
       </c>
       <c r="I64" t="str">
-        <v>1430</v>
+        <v>1800</v>
       </c>
       <c r="J64" t="str">
-        <v>1600</v>
+        <v>1930</v>
       </c>
       <c r="K64" t="str">
-        <v>GT207</v>
+        <v>Full Online</v>
       </c>
       <c r="L64" t="str">
-        <v>F</v>
+        <v>H</v>
       </c>
       <c r="M64" t="str">
-        <v>1430</v>
+        <v>1800</v>
       </c>
       <c r="N64" t="str">
-        <v>1600</v>
+        <v>1930</v>
       </c>
       <c r="O64" t="str">
-        <v>HYBRID</v>
-      </c>
-      <c r="P64">
-        <v>40</v>
+        <v>Full Online</v>
       </c>
       <c r="Q64" t="str">
-        <v>HYBRID</v>
+        <v>FULLONLINE/Special class only</v>
       </c>
     </row>
     <row r="65">
@@ -3349,13 +3325,13 @@
         <v/>
       </c>
       <c r="B65" t="str">
-        <v/>
+        <v>BSIET-AD-123 (30)</v>
       </c>
       <c r="C65" t="str">
-        <v>ST-MATH</v>
+        <v>ADANI-1</v>
       </c>
       <c r="D65" t="str">
-        <v>Integral Calculus for Computer Science Students</v>
+        <v>Animation I: Modeling and Rigging</v>
       </c>
       <c r="E65" t="str">
         <v>X</v>
@@ -3364,34 +3340,34 @@
         <v>22</v>
       </c>
       <c r="G65" t="str">
-        <v>CANDELARIA, LUISETTE</v>
+        <v>ASIS, LOVE</v>
       </c>
       <c r="H65" t="str">
         <v>T</v>
       </c>
       <c r="I65" t="str">
-        <v>730</v>
+        <v>1100</v>
       </c>
       <c r="J65" t="str">
-        <v>900</v>
+        <v>1230</v>
       </c>
       <c r="K65" t="str">
-        <v>GT207</v>
+        <v>RL208</v>
       </c>
       <c r="L65" t="str">
         <v>F</v>
       </c>
       <c r="M65" t="str">
-        <v>730</v>
+        <v>1100</v>
       </c>
       <c r="N65" t="str">
-        <v>900</v>
+        <v>1230</v>
       </c>
       <c r="O65" t="str">
         <v>ONLINE</v>
       </c>
       <c r="P65">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="Q65" t="str">
         <v>HYBRID</v>
@@ -3405,10 +3381,10 @@
         <v/>
       </c>
       <c r="C66" t="str">
-        <v>STALGCM</v>
+        <v>ADCHR-2</v>
       </c>
       <c r="D66" t="str">
-        <v>Advanced Algorithms and Complexities</v>
+        <v>Advanced Game Character and Materials</v>
       </c>
       <c r="E66" t="str">
         <v>X</v>
@@ -3417,7 +3393,7 @@
         <v>22</v>
       </c>
       <c r="G66" t="str">
-        <v>BARFEH, DAVOOD</v>
+        <v>CARRANCEJA, MICHAEL</v>
       </c>
       <c r="H66" t="str">
         <v>T</v>
@@ -3429,7 +3405,7 @@
         <v>1045</v>
       </c>
       <c r="K66" t="str">
-        <v>GT207</v>
+        <v>RL208</v>
       </c>
       <c r="L66" t="str">
         <v>F</v>
@@ -3441,10 +3417,10 @@
         <v>1045</v>
       </c>
       <c r="O66" t="str">
-        <v>Online</v>
+        <v>ONLINE</v>
       </c>
       <c r="P66">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="Q66" t="str">
         <v>HYBRID</v>
@@ -3458,10 +3434,10 @@
         <v/>
       </c>
       <c r="C67" t="str">
-        <v>ADRULES</v>
+        <v>GDELEC2-MACHLRN</v>
       </c>
       <c r="D67" t="str">
-        <v>Game Mechanics</v>
+        <v>Game Development Elective 2</v>
       </c>
       <c r="E67" t="str">
         <v>X</v>
@@ -3470,28 +3446,28 @@
         <v>22</v>
       </c>
       <c r="G67" t="str">
-        <v>DIMAUNAHAN, RYAN</v>
+        <v>AZCARRAGA, ARNULFO</v>
       </c>
       <c r="H67" t="str">
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="I67" t="str">
-        <v>1430</v>
+        <v>1100</v>
       </c>
       <c r="J67" t="str">
-        <v>1600</v>
+        <v>1230</v>
       </c>
       <c r="K67" t="str">
         <v>GT201</v>
       </c>
       <c r="L67" t="str">
-        <v>H</v>
+        <v>F</v>
       </c>
       <c r="M67" t="str">
-        <v>1430</v>
+        <v>1100</v>
       </c>
       <c r="N67" t="str">
-        <v>1600</v>
+        <v>1230</v>
       </c>
       <c r="O67" t="str">
         <v>ONLINE</v>
@@ -3511,10 +3487,10 @@
         <v/>
       </c>
       <c r="C68" t="str">
-        <v>ADCON-2</v>
+        <v>CAP-IE3</v>
       </c>
       <c r="D68" t="str">
-        <v>Concept Art 2 (Creatures and Environment)</v>
+        <v>IET Capstone 3</v>
       </c>
       <c r="E68" t="str">
         <v>X</v>
@@ -3523,37 +3499,10 @@
         <v>22</v>
       </c>
       <c r="G68" t="str">
-        <v>CARRANCEJA, MICHAEL</v>
-      </c>
-      <c r="H68" t="str">
-        <v>M</v>
-      </c>
-      <c r="I68" t="str">
-        <v>1100</v>
-      </c>
-      <c r="J68" t="str">
-        <v>1230</v>
-      </c>
-      <c r="K68" t="str">
-        <v>RL209</v>
-      </c>
-      <c r="L68" t="str">
-        <v>H</v>
-      </c>
-      <c r="M68" t="str">
-        <v>1100</v>
-      </c>
-      <c r="N68" t="str">
-        <v>1230</v>
-      </c>
-      <c r="O68" t="str">
-        <v>ONLINE</v>
-      </c>
-      <c r="P68">
-        <v>30</v>
+        <v>TIGHE, EDWARD</v>
       </c>
       <c r="Q68" t="str">
-        <v>HYBRID</v>
+        <v>MERGED X22</v>
       </c>
     </row>
     <row r="69">
@@ -3564,28 +3513,28 @@
         <v/>
       </c>
       <c r="C69" t="str">
-        <v>ADGAM-2</v>
+        <v>CCPROG3</v>
       </c>
       <c r="D69" t="str">
-        <v>Advanced 2D and 3D Game Art</v>
+        <v>Object Oriented Programming</v>
       </c>
       <c r="E69" t="str">
         <v>X</v>
       </c>
       <c r="F69" t="str">
-        <v>22</v>
+        <v>22B</v>
       </c>
       <c r="G69" t="str">
-        <v>CARRANCEJA, MICHAEL</v>
+        <v>MATIAS, ANGELO</v>
       </c>
       <c r="H69" t="str">
         <v>M</v>
       </c>
       <c r="I69" t="str">
-        <v>915</v>
+        <v>1430</v>
       </c>
       <c r="J69" t="str">
-        <v>1045</v>
+        <v>1600</v>
       </c>
       <c r="K69" t="str">
         <v>RL208</v>
@@ -3594,10 +3543,10 @@
         <v>H</v>
       </c>
       <c r="M69" t="str">
-        <v>915</v>
+        <v>1245</v>
       </c>
       <c r="N69" t="str">
-        <v>1045</v>
+        <v>1415</v>
       </c>
       <c r="O69" t="str">
         <v>ONLINE</v>
@@ -3617,10 +3566,10 @@
         <v/>
       </c>
       <c r="C70" t="str">
-        <v>GDADPRG</v>
+        <v>CSMATH2</v>
       </c>
       <c r="D70" t="str">
-        <v>Advanced Programming Concepts</v>
+        <v>Linear Algebra for Computer Science Students</v>
       </c>
       <c r="E70" t="str">
         <v>X</v>
@@ -3629,22 +3578,22 @@
         <v>22</v>
       </c>
       <c r="G70" t="str">
-        <v>ESPULGAR, CANDY</v>
+        <v>GERVACIO, SEVERINO</v>
       </c>
       <c r="H70" t="str">
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="I70" t="str">
-        <v>1430</v>
+        <v>1615</v>
       </c>
       <c r="J70" t="str">
-        <v>1600</v>
+        <v>1745</v>
       </c>
       <c r="K70" t="str">
-        <v>RL208</v>
+        <v>RL301</v>
       </c>
       <c r="L70" t="str">
-        <v>F</v>
+        <v>H</v>
       </c>
       <c r="M70" t="str">
         <v>1615</v>
@@ -3653,10 +3602,10 @@
         <v>1745</v>
       </c>
       <c r="O70" t="str">
-        <v>RL208</v>
+        <v>ONLINE</v>
       </c>
       <c r="P70">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="Q70" t="str">
         <v>HYBRID</v>
@@ -3670,10 +3619,10 @@
         <v/>
       </c>
       <c r="C71" t="str">
-        <v>GDINTAI</v>
+        <v>ST-MATH</v>
       </c>
       <c r="D71" t="str">
-        <v>Introduction to AI in Games</v>
+        <v>Integral Calculus for Computer Science Students</v>
       </c>
       <c r="E71" t="str">
         <v>X</v>
@@ -3682,37 +3631,37 @@
         <v>22</v>
       </c>
       <c r="G71" t="str">
-        <v>CARONONGAN, ARTURO</v>
+        <v>CANDELARIA, LUISETTE</v>
       </c>
       <c r="H71" t="str">
         <v>T</v>
       </c>
       <c r="I71" t="str">
-        <v>915</v>
+        <v>730</v>
       </c>
       <c r="J71" t="str">
-        <v>1045</v>
+        <v>900</v>
       </c>
       <c r="K71" t="str">
-        <v>FULL ONLINE</v>
+        <v>GT207</v>
       </c>
       <c r="L71" t="str">
         <v>F</v>
       </c>
       <c r="M71" t="str">
-        <v>915</v>
+        <v>730</v>
       </c>
       <c r="N71" t="str">
-        <v>1045</v>
+        <v>900</v>
       </c>
       <c r="O71" t="str">
-        <v>FULL ONLINE</v>
+        <v>ONLINE</v>
       </c>
       <c r="P71">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Q71" t="str">
-        <v>FULLONLINE</v>
+        <v>HYBRID</v>
       </c>
     </row>
     <row r="72">
@@ -3723,10 +3672,10 @@
         <v/>
       </c>
       <c r="C72" t="str">
-        <v>GDGRAP1</v>
+        <v>ADGAM-2</v>
       </c>
       <c r="D72" t="str">
-        <v>Introduction to Computer Graphics</v>
+        <v>Advanced 2D and 3D Game Art</v>
       </c>
       <c r="E72" t="str">
         <v>X</v>
@@ -3735,10 +3684,10 @@
         <v>22</v>
       </c>
       <c r="G72" t="str">
-        <v>CALA, JOHN RAYMOND</v>
+        <v>CARRANCEJA, MICHAEL</v>
       </c>
       <c r="H72" t="str">
-        <v>H</v>
+        <v>M</v>
       </c>
       <c r="I72" t="str">
         <v>915</v>
@@ -3753,13 +3702,13 @@
         <v>H</v>
       </c>
       <c r="M72" t="str">
-        <v>1100</v>
+        <v>915</v>
       </c>
       <c r="N72" t="str">
-        <v>1230</v>
+        <v>1045</v>
       </c>
       <c r="O72" t="str">
-        <v>RL208</v>
+        <v>ONLINE</v>
       </c>
       <c r="P72">
         <v>19</v>
@@ -3776,10 +3725,10 @@
         <v/>
       </c>
       <c r="C73" t="str">
-        <v>PRCCSST</v>
+        <v>IEPRJMG</v>
       </c>
       <c r="D73" t="str">
-        <v>Practicum for ST Students</v>
+        <v>Project Management</v>
       </c>
       <c r="E73" t="str">
         <v>X</v>
@@ -3788,7 +3737,34 @@
         <v>22</v>
       </c>
       <c r="G73" t="str">
-        <v>RIVERA, PAULINE</v>
+        <v>MENDOZA, MA. LOURDES</v>
+      </c>
+      <c r="H73" t="str">
+        <v>T</v>
+      </c>
+      <c r="I73" t="str">
+        <v>915</v>
+      </c>
+      <c r="J73" t="str">
+        <v>1045</v>
+      </c>
+      <c r="K73" t="str">
+        <v>Online</v>
+      </c>
+      <c r="L73" t="str">
+        <v>T</v>
+      </c>
+      <c r="M73" t="str">
+        <v>1100</v>
+      </c>
+      <c r="N73" t="str">
+        <v>1230</v>
+      </c>
+      <c r="O73" t="str">
+        <v>Online</v>
+      </c>
+      <c r="Q73" t="str">
+        <v>FULLONLINE</v>
       </c>
     </row>
     <row r="74">
@@ -3799,46 +3775,46 @@
         <v/>
       </c>
       <c r="C74" t="str">
-        <v>STMETHD</v>
-      </c>
-      <c r="D74" t="str">
-        <v>ST Research Methods</v>
+        <v>CCPROG2</v>
       </c>
       <c r="E74" t="str">
         <v>X</v>
       </c>
       <c r="F74" t="str">
-        <v>S1</v>
+        <v>22</v>
       </c>
       <c r="G74" t="str">
-        <v>SAMSON, BRIANE</v>
+        <v>ENCARNACION, ALAIN</v>
       </c>
       <c r="H74" t="str">
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="I74" t="str">
-        <v>1800</v>
+        <v>1100</v>
       </c>
       <c r="J74" t="str">
-        <v>1930</v>
+        <v>1230</v>
       </c>
       <c r="K74" t="str">
-        <v>Full Online</v>
+        <v>RL202</v>
       </c>
       <c r="L74" t="str">
-        <v>H</v>
+        <v>F</v>
       </c>
       <c r="M74" t="str">
-        <v>1800</v>
+        <v>1100</v>
       </c>
       <c r="N74" t="str">
-        <v>1930</v>
+        <v>1230</v>
       </c>
       <c r="O74" t="str">
-        <v>Full Online</v>
+        <v>online</v>
+      </c>
+      <c r="P74">
+        <v>20</v>
       </c>
       <c r="Q74" t="str">
-        <v>FULLONLINE/Special class only</v>
+        <v>HYBRID</v>
       </c>
     </row>
     <row r="75">
@@ -3849,10 +3825,10 @@
         <v/>
       </c>
       <c r="C75" t="str">
-        <v>IESERGA</v>
+        <v>CCDSALG</v>
       </c>
       <c r="D75" t="str">
-        <v>Serious Games</v>
+        <v>Data Structures and Algorithms</v>
       </c>
       <c r="E75" t="str">
         <v>X</v>
@@ -3861,28 +3837,28 @@
         <v>22</v>
       </c>
       <c r="G75" t="str">
-        <v>DIMAUNAHAN, RYAN</v>
+        <v>BARFEH, DAVOOD</v>
       </c>
       <c r="H75" t="str">
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="I75" t="str">
-        <v>1615</v>
+        <v>730</v>
       </c>
       <c r="J75" t="str">
-        <v>1745</v>
+        <v>900</v>
       </c>
       <c r="K75" t="str">
-        <v>GT207</v>
+        <v>GT208</v>
       </c>
       <c r="L75" t="str">
-        <v>H</v>
+        <v>F</v>
       </c>
       <c r="M75" t="str">
-        <v>1615</v>
+        <v>730</v>
       </c>
       <c r="N75" t="str">
-        <v>1745</v>
+        <v>900</v>
       </c>
       <c r="O75" t="str">
         <v>ONLINE</v>
@@ -3899,13 +3875,13 @@
         <v/>
       </c>
       <c r="B76" t="str">
-        <v>BSIET-AD-123 (30)</v>
+        <v/>
       </c>
       <c r="C76" t="str">
-        <v>ADANI-1</v>
+        <v>STT101A</v>
       </c>
       <c r="D76" t="str">
-        <v>Animation I: Modeling and Rigging</v>
+        <v>Foundation Course in Statistics</v>
       </c>
       <c r="E76" t="str">
         <v>X</v>
@@ -3914,10 +3890,10 @@
         <v>22</v>
       </c>
       <c r="G76" t="str">
-        <v>ASIS, LOVE</v>
+        <v>ALBERTO, ANGELO</v>
       </c>
       <c r="H76" t="str">
-        <v>T</v>
+        <v>M</v>
       </c>
       <c r="I76" t="str">
         <v>1100</v>
@@ -3926,10 +3902,10 @@
         <v>1230</v>
       </c>
       <c r="K76" t="str">
-        <v>RL208</v>
+        <v>RL301</v>
       </c>
       <c r="L76" t="str">
-        <v>F</v>
+        <v>H</v>
       </c>
       <c r="M76" t="str">
         <v>1100</v>
@@ -3941,7 +3917,7 @@
         <v>ONLINE</v>
       </c>
       <c r="P76">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="Q76" t="str">
         <v>HYBRID</v>
@@ -3955,10 +3931,10 @@
         <v/>
       </c>
       <c r="C77" t="str">
-        <v>ADCHR-2</v>
+        <v>IETHEOR</v>
       </c>
       <c r="D77" t="str">
-        <v>Advanced Game Character and Materials</v>
+        <v>Introduction to Computer Game Theory</v>
       </c>
       <c r="E77" t="str">
         <v>X</v>
@@ -3967,7 +3943,7 @@
         <v>22</v>
       </c>
       <c r="G77" t="str">
-        <v>CARRANCEJA, MICHAEL</v>
+        <v>ESGUERRA, TERRENCE</v>
       </c>
       <c r="H77" t="str">
         <v>T</v>
@@ -3979,22 +3955,22 @@
         <v>1045</v>
       </c>
       <c r="K77" t="str">
-        <v>RL208</v>
+        <v>GT203</v>
       </c>
       <c r="L77" t="str">
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="M77" t="str">
-        <v>915</v>
+        <v>1100</v>
       </c>
       <c r="N77" t="str">
-        <v>1045</v>
+        <v>1230</v>
       </c>
       <c r="O77" t="str">
         <v>ONLINE</v>
       </c>
       <c r="P77">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="Q77" t="str">
         <v>HYBRID</v>
@@ -4008,10 +3984,10 @@
         <v/>
       </c>
       <c r="C78" t="str">
-        <v>GDNETWK</v>
+        <v>ADNARA1</v>
       </c>
       <c r="D78" t="str">
-        <v>Introduction to Networks and its Application in Games</v>
+        <v>Basic Games Narratives</v>
       </c>
       <c r="E78" t="str">
         <v>X</v>
@@ -4020,10 +3996,10 @@
         <v>22</v>
       </c>
       <c r="G78" t="str">
-        <v>MANTUA, JONATHAN</v>
+        <v>TANYAG, JET</v>
       </c>
       <c r="H78" t="str">
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="I78" t="str">
         <v>915</v>
@@ -4032,16 +4008,16 @@
         <v>1045</v>
       </c>
       <c r="K78" t="str">
-        <v>GT201</v>
+        <v>GT203</v>
       </c>
       <c r="L78" t="str">
-        <v>F</v>
+        <v>W</v>
       </c>
       <c r="M78" t="str">
-        <v>915</v>
+        <v>1100</v>
       </c>
       <c r="N78" t="str">
-        <v>1045</v>
+        <v>1230</v>
       </c>
       <c r="O78" t="str">
         <v>ONLINE</v>
@@ -4061,46 +4037,46 @@
         <v/>
       </c>
       <c r="C79" t="str">
-        <v>GDELEC2-MACHLRN</v>
+        <v>CSMATH2</v>
       </c>
       <c r="D79" t="str">
-        <v>Game Development Elective 2</v>
+        <v>Linear Algebra for Computer Science Students</v>
       </c>
       <c r="E79" t="str">
         <v>X</v>
       </c>
       <c r="F79" t="str">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G79" t="str">
-        <v>AZCARRAGA, ARNULFO</v>
+        <v>GERVACIO, SEVERINO</v>
       </c>
       <c r="H79" t="str">
-        <v>T</v>
+        <v>M</v>
       </c>
       <c r="I79" t="str">
-        <v>1100</v>
+        <v>1430</v>
       </c>
       <c r="J79" t="str">
-        <v>1230</v>
+        <v>1600</v>
       </c>
       <c r="K79" t="str">
-        <v>GT201</v>
+        <v>RL301</v>
       </c>
       <c r="L79" t="str">
-        <v>F</v>
+        <v>H</v>
       </c>
       <c r="M79" t="str">
-        <v>1100</v>
+        <v>1430</v>
       </c>
       <c r="N79" t="str">
-        <v>1230</v>
+        <v>1600</v>
       </c>
       <c r="O79" t="str">
         <v>ONLINE</v>
       </c>
       <c r="P79">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="Q79" t="str">
         <v>HYBRID</v>
@@ -4114,10 +4090,10 @@
         <v/>
       </c>
       <c r="C80" t="str">
-        <v>THS-ST3</v>
+        <v>CSARCH1</v>
       </c>
       <c r="D80" t="str">
-        <v>ST Thesis 3</v>
+        <v>Introduction to Computer Organization and Architecture 1</v>
       </c>
       <c r="E80" t="str">
         <v>X</v>
@@ -4126,7 +4102,37 @@
         <v>22</v>
       </c>
       <c r="G80" t="str">
-        <v>TIGHE, EDWARD</v>
+        <v>ASABA, HIROKI</v>
+      </c>
+      <c r="H80" t="str">
+        <v>T</v>
+      </c>
+      <c r="I80" t="str">
+        <v>1430</v>
+      </c>
+      <c r="J80" t="str">
+        <v>1600</v>
+      </c>
+      <c r="K80" t="str">
+        <v>GT207</v>
+      </c>
+      <c r="L80" t="str">
+        <v>F</v>
+      </c>
+      <c r="M80" t="str">
+        <v>1430</v>
+      </c>
+      <c r="N80" t="str">
+        <v>1600</v>
+      </c>
+      <c r="O80" t="str">
+        <v>HYBRID</v>
+      </c>
+      <c r="P80">
+        <v>40</v>
+      </c>
+      <c r="Q80" t="str">
+        <v>HYBRID</v>
       </c>
     </row>
     <row r="81">
@@ -4137,10 +4143,10 @@
         <v/>
       </c>
       <c r="C81" t="str">
-        <v>CCINOV8</v>
+        <v>ADRULES</v>
       </c>
       <c r="D81" t="str">
-        <v>Innovation and Technology Management</v>
+        <v>Game Mechanics</v>
       </c>
       <c r="E81" t="str">
         <v>X</v>
@@ -4149,31 +4155,31 @@
         <v>22</v>
       </c>
       <c r="G81" t="str">
-        <v>ENCARNACION, ALAIN</v>
+        <v>DIMAUNAHAN, RYAN</v>
       </c>
       <c r="H81" t="str">
-        <v>T</v>
+        <v>M</v>
       </c>
       <c r="I81" t="str">
-        <v>1615</v>
+        <v>1430</v>
       </c>
       <c r="J81" t="str">
-        <v>1745</v>
+        <v>1600</v>
       </c>
       <c r="K81" t="str">
-        <v>MRE201</v>
+        <v>GT201</v>
       </c>
       <c r="L81" t="str">
-        <v>F</v>
+        <v>H</v>
       </c>
       <c r="M81" t="str">
-        <v>1615</v>
+        <v>1430</v>
       </c>
       <c r="N81" t="str">
-        <v>1745</v>
+        <v>1600</v>
       </c>
       <c r="O81" t="str">
-        <v>Online</v>
+        <v>ONLINE</v>
       </c>
       <c r="P81">
         <v>40</v>
@@ -4190,10 +4196,10 @@
         <v/>
       </c>
       <c r="C82" t="str">
-        <v>CAP-IE3</v>
+        <v>GDGRAP1</v>
       </c>
       <c r="D82" t="str">
-        <v>IET Capstone 3</v>
+        <v>Introduction to Computer Graphics</v>
       </c>
       <c r="E82" t="str">
         <v>X</v>
@@ -4202,7 +4208,37 @@
         <v>22</v>
       </c>
       <c r="G82" t="str">
-        <v>TIGHE, EDWARD</v>
+        <v>CALA, JOHN RAYMOND</v>
+      </c>
+      <c r="H82" t="str">
+        <v>H</v>
+      </c>
+      <c r="I82" t="str">
+        <v>915</v>
+      </c>
+      <c r="J82" t="str">
+        <v>1045</v>
+      </c>
+      <c r="K82" t="str">
+        <v>RL208</v>
+      </c>
+      <c r="L82" t="str">
+        <v>H</v>
+      </c>
+      <c r="M82" t="str">
+        <v>1100</v>
+      </c>
+      <c r="N82" t="str">
+        <v>1230</v>
+      </c>
+      <c r="O82" t="str">
+        <v>RL208</v>
+      </c>
+      <c r="P82">
+        <v>19</v>
+      </c>
+      <c r="Q82" t="str">
+        <v>HYBRID</v>
       </c>
     </row>
     <row r="83">
@@ -4213,10 +4249,10 @@
         <v/>
       </c>
       <c r="C83" t="str">
-        <v>IE-TECH</v>
+        <v>PRCCSST</v>
       </c>
       <c r="D83" t="str">
-        <v>Introduction to Technical Art</v>
+        <v>Practicum for ST Students</v>
       </c>
       <c r="E83" t="str">
         <v>X</v>
@@ -4225,37 +4261,7 @@
         <v>22</v>
       </c>
       <c r="G83" t="str">
-        <v>RIVERO, MIKER</v>
-      </c>
-      <c r="H83" t="str">
-        <v>S</v>
-      </c>
-      <c r="I83" t="str">
-        <v>915</v>
-      </c>
-      <c r="J83" t="str">
-        <v>1045</v>
-      </c>
-      <c r="K83" t="str">
-        <v>MRE303</v>
-      </c>
-      <c r="L83" t="str">
-        <v>S</v>
-      </c>
-      <c r="M83" t="str">
-        <v>1100</v>
-      </c>
-      <c r="N83" t="str">
-        <v>1230</v>
-      </c>
-      <c r="O83" t="str">
-        <v>MRE303</v>
-      </c>
-      <c r="P83">
-        <v>40</v>
-      </c>
-      <c r="Q83" t="str">
-        <v>ODD weeks = F2F</v>
+        <v>RIVERA, PAULINE</v>
       </c>
     </row>
     <row r="84">
@@ -4266,10 +4272,10 @@
         <v/>
       </c>
       <c r="C84" t="str">
-        <v>IEPRJMG</v>
+        <v>IESERGA</v>
       </c>
       <c r="D84" t="str">
-        <v>Project Management</v>
+        <v>Serious Games</v>
       </c>
       <c r="E84" t="str">
         <v>X</v>
@@ -4278,34 +4284,37 @@
         <v>22</v>
       </c>
       <c r="G84" t="str">
-        <v>MENDOZA, MA. LOURDES</v>
+        <v>DIMAUNAHAN, RYAN</v>
       </c>
       <c r="H84" t="str">
-        <v>T</v>
+        <v>M</v>
       </c>
       <c r="I84" t="str">
-        <v>915</v>
+        <v>1615</v>
       </c>
       <c r="J84" t="str">
-        <v>1045</v>
+        <v>1745</v>
       </c>
       <c r="K84" t="str">
-        <v>Online</v>
+        <v>GT207</v>
       </c>
       <c r="L84" t="str">
-        <v>T</v>
+        <v>H</v>
       </c>
       <c r="M84" t="str">
-        <v>1100</v>
+        <v>1615</v>
       </c>
       <c r="N84" t="str">
-        <v>1230</v>
+        <v>1745</v>
       </c>
       <c r="O84" t="str">
-        <v>Online</v>
+        <v>ONLINE</v>
+      </c>
+      <c r="P84">
+        <v>40</v>
       </c>
       <c r="Q84" t="str">
-        <v>FULLONLINE</v>
+        <v>HYBRID</v>
       </c>
     </row>
     <row r="85">
@@ -4316,10 +4325,10 @@
         <v/>
       </c>
       <c r="C85" t="str">
-        <v>ADELEC3-ADPIXEL</v>
+        <v>CAP-IE3</v>
       </c>
       <c r="D85" t="str">
-        <v>Game Art and Design Elective 3</v>
+        <v>IET Capstone 3</v>
       </c>
       <c r="E85" t="str">
         <v>X</v>
@@ -4328,34 +4337,7 @@
         <v>22</v>
       </c>
       <c r="G85" t="str">
-        <v>SALDIVAR, ROLAND</v>
-      </c>
-      <c r="H85" t="str">
-        <v>M</v>
-      </c>
-      <c r="I85" t="str">
-        <v>1245</v>
-      </c>
-      <c r="J85" t="str">
-        <v>1415</v>
-      </c>
-      <c r="K85" t="str">
-        <v>RL202</v>
-      </c>
-      <c r="L85" t="str">
-        <v>H</v>
-      </c>
-      <c r="M85" t="str">
-        <v>1245</v>
-      </c>
-      <c r="N85" t="str">
-        <v>1415</v>
-      </c>
-      <c r="P85">
-        <v>17</v>
-      </c>
-      <c r="Q85" t="str">
-        <v>ODD weeks = F2F</v>
+        <v>TIGHE, EDWARD</v>
       </c>
     </row>
     <row r="86">
@@ -4366,10 +4348,10 @@
         <v/>
       </c>
       <c r="C86" t="str">
-        <v>CAP-IE3</v>
+        <v>IE-TECH</v>
       </c>
       <c r="D86" t="str">
-        <v>IET Capstone 3</v>
+        <v>Introduction to Technical Art</v>
       </c>
       <c r="E86" t="str">
         <v>X</v>
@@ -4378,10 +4360,37 @@
         <v>22</v>
       </c>
       <c r="G86" t="str">
-        <v>TIGHE, EDWARD</v>
+        <v>RIVERO, MIKER</v>
+      </c>
+      <c r="H86" t="str">
+        <v>S</v>
+      </c>
+      <c r="I86" t="str">
+        <v>915</v>
+      </c>
+      <c r="J86" t="str">
+        <v>1045</v>
+      </c>
+      <c r="K86" t="str">
+        <v>MRE303</v>
+      </c>
+      <c r="L86" t="str">
+        <v>S</v>
+      </c>
+      <c r="M86" t="str">
+        <v>1100</v>
+      </c>
+      <c r="N86" t="str">
+        <v>1230</v>
+      </c>
+      <c r="O86" t="str">
+        <v>MRE303</v>
+      </c>
+      <c r="P86">
+        <v>40</v>
       </c>
       <c r="Q86" t="str">
-        <v>MERGED X22</v>
+        <v>ODD weeks = F2F</v>
       </c>
     </row>
     <row r="87">
@@ -4489,101 +4498,51 @@
         <v/>
       </c>
       <c r="C89" t="str">
-        <v>CCPROG2</v>
+        <v>ADELEC3-ADPIXEL</v>
+      </c>
+      <c r="D89" t="str">
+        <v>Game Art and Design Elective 3</v>
       </c>
       <c r="E89" t="str">
         <v>X</v>
       </c>
       <c r="F89" t="str">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G89" t="str">
-        <v>ENCARNACION, ALAIN</v>
+        <v>SALDIVAR, ROLAND</v>
       </c>
       <c r="H89" t="str">
-        <v>T</v>
+        <v>M</v>
       </c>
       <c r="I89" t="str">
-        <v>1100</v>
+        <v>1430</v>
       </c>
       <c r="J89" t="str">
-        <v>1230</v>
+        <v>1600</v>
       </c>
       <c r="K89" t="str">
         <v>RL202</v>
       </c>
       <c r="L89" t="str">
-        <v>F</v>
+        <v>H</v>
       </c>
       <c r="M89" t="str">
-        <v>1100</v>
+        <v>1430</v>
       </c>
       <c r="N89" t="str">
-        <v>1230</v>
-      </c>
-      <c r="O89" t="str">
-        <v>online</v>
+        <v>1600</v>
       </c>
       <c r="P89">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="Q89" t="str">
-        <v>HYBRID</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="str">
-        <v/>
-      </c>
-      <c r="B90" t="str">
-        <v/>
-      </c>
-      <c r="C90" t="str">
-        <v>ADELEC3-ADPIXEL</v>
-      </c>
-      <c r="D90" t="str">
-        <v>Game Art and Design Elective 3</v>
-      </c>
-      <c r="E90" t="str">
-        <v>X</v>
-      </c>
-      <c r="F90" t="str">
-        <v>23</v>
-      </c>
-      <c r="G90" t="str">
-        <v>SALDIVAR, ROLAND</v>
-      </c>
-      <c r="H90" t="str">
-        <v>M</v>
-      </c>
-      <c r="I90" t="str">
-        <v>1430</v>
-      </c>
-      <c r="J90" t="str">
-        <v>1600</v>
-      </c>
-      <c r="K90" t="str">
-        <v>RL202</v>
-      </c>
-      <c r="L90" t="str">
-        <v>H</v>
-      </c>
-      <c r="M90" t="str">
-        <v>1430</v>
-      </c>
-      <c r="N90" t="str">
-        <v>1600</v>
-      </c>
-      <c r="P90">
-        <v>17</v>
-      </c>
-      <c r="Q90" t="str">
         <v>HYBRID</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:Q90"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:Q89"/>
   </ignoredErrors>
 </worksheet>
 </file>